--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Período</t>
   </si>
   <si>
+    <t>05/2025</t>
+  </si>
+  <si>
     <t>04/2025</t>
   </si>
   <si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t>02/2025</t>
-  </si>
-  <si>
-    <t>01/2025</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,13 +423,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>7890.54</v>
+        <v>6309.66</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -440,13 +440,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>7622.33</v>
+        <v>6038.94</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2025</v>
@@ -457,13 +457,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>17544.87</v>
+        <v>1805.49</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2025</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1905.42</v>
+        <v>7890.54</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -486,15 +486,15 @@
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>1044.7</v>
+        <v>7622.33</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -503,15 +503,15 @@
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>2415.17</v>
+        <v>17544.87</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -520,15 +520,15 @@
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>5303.6</v>
+        <v>1905.42</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -537,15 +537,15 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>5184.47</v>
+        <v>1044.7</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -554,15 +554,15 @@
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1553.36</v>
+        <v>2415.17</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -571,15 +571,15 @@
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>6895.1</v>
+        <v>5303.6</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -588,15 +588,15 @@
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>3115.18</v>
+        <v>5184.47</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -605,15 +605,15 @@
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>2957.12</v>
+        <v>1553.36</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -622,15 +622,15 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>3488.72</v>
+        <v>6895.1</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -639,15 +639,15 @@
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>6072.04</v>
+        <v>3115.18</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -656,15 +656,15 @@
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>7854.64</v>
+        <v>2957.12</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -673,15 +673,15 @@
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>1793.15</v>
+        <v>3488.72</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -690,15 +690,15 @@
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>852.16</v>
+        <v>6143.24</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -707,15 +707,15 @@
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>4882.96</v>
+        <v>7854.64</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -724,15 +724,15 @@
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>7452.139999999999</v>
+        <v>2184.55</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -741,18 +741,18 @@
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>3051.74</v>
+        <v>1904.36</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>2025</v>
@@ -763,13 +763,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>8076.58</v>
+        <v>5438.35</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>2025</v>
@@ -780,13 +780,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>2846.82</v>
+        <v>7952.53</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>2025</v>
@@ -797,13 +797,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>5273</v>
+        <v>8340.92</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>2025</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>2859.88</v>
+        <v>3051.74</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -826,15 +826,15 @@
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>3586.54</v>
+        <v>8076.58</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -843,15 +843,15 @@
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>3667.31</v>
+        <v>2846.82</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -860,15 +860,15 @@
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>3928.66</v>
+        <v>5273</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -877,15 +877,15 @@
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>3320.22</v>
+        <v>2859.88</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -894,15 +894,15 @@
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>923.8099999999999</v>
+        <v>3586.54</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -911,15 +911,15 @@
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>4986.04</v>
+        <v>3667.31</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -928,15 +928,15 @@
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>1086.5</v>
+        <v>3928.66</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -945,15 +945,15 @@
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>6555.309999999999</v>
+        <v>3320.22</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -962,15 +962,15 @@
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>5885.61</v>
+        <v>923.8099999999999</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -979,15 +979,15 @@
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>3667.99</v>
+        <v>4986.04</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -996,15 +996,15 @@
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>6259.42</v>
+        <v>1086.5</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1013,15 +1013,15 @@
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>3653.25</v>
+        <v>6555.309999999999</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1030,15 +1030,15 @@
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>2642.05</v>
+        <v>5885.61</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1047,15 +1047,15 @@
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>11719.82</v>
+        <v>3667.99</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1064,18 +1064,18 @@
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>5672.85</v>
+        <v>6259.42</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40">
         <v>2025</v>
@@ -1086,13 +1086,13 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>4327.82</v>
+        <v>3653.25</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>2025</v>
@@ -1103,13 +1103,13 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>4515.13</v>
+        <v>2642.05</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>2025</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B43">
-        <v>4392.82</v>
+        <v>11719.82</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43">
         <v>2025</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>6569.1</v>
+        <v>5672.85</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1149,15 +1149,15 @@
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B45">
-        <v>4368.17</v>
+        <v>4327.82</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1166,15 +1166,15 @@
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>2353.68</v>
+        <v>4515.13</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1183,15 +1183,15 @@
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>5981.65</v>
+        <v>4392.82</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1200,15 +1200,15 @@
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>4046.06</v>
+        <v>6569.1</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1217,15 +1217,15 @@
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>2145.6</v>
+        <v>4368.17</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1234,15 +1234,15 @@
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B50">
-        <v>2525.47</v>
+        <v>2353.68</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1251,15 +1251,15 @@
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>4856.68</v>
+        <v>5981.65</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1268,15 +1268,15 @@
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>3002.33</v>
+        <v>4046.06</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1285,15 +1285,15 @@
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>2102.41</v>
+        <v>2145.6</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -1302,15 +1302,15 @@
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>3130.24</v>
+        <v>2525.47</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1319,15 +1319,15 @@
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>4723.690000000001</v>
+        <v>4856.68</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1336,15 +1336,15 @@
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>3334.44</v>
+        <v>3002.33</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -1353,15 +1353,15 @@
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>18545.47</v>
+        <v>2102.41</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1370,15 +1370,15 @@
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B58">
-        <v>10080.83</v>
+        <v>3130.24</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1387,15 +1387,15 @@
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B59">
-        <v>13958.13</v>
+        <v>4723.690000000001</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1404,18 +1404,18 @@
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>4031.3</v>
+        <v>3334.44</v>
       </c>
       <c r="C60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>2025</v>
@@ -1426,13 +1426,13 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>5685.91</v>
+        <v>18545.47</v>
       </c>
       <c r="C61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>2025</v>
@@ -1443,13 +1443,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>10269.39</v>
+        <v>10080.83</v>
       </c>
       <c r="C62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>2025</v>
@@ -1460,324 +1460,18 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="B63">
-        <v>7005.57</v>
+        <v>13958.13</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>2025</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>8</v>
-      </c>
-      <c r="B64">
-        <v>3510.82</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>2025</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
-        <v>9</v>
-      </c>
-      <c r="B65">
-        <v>1786.34</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>2025</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
-        <v>10</v>
-      </c>
-      <c r="B66">
-        <v>1428.1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>2025</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
-        <v>13</v>
-      </c>
-      <c r="B67">
-        <v>2288.28</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
-        <v>14</v>
-      </c>
-      <c r="B68">
-        <v>3622.97</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>2025</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
-        <v>15</v>
-      </c>
-      <c r="B69">
-        <v>3557.12</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>2025</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>16</v>
-      </c>
-      <c r="B70">
-        <v>2393.7</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
-        <v>17</v>
-      </c>
-      <c r="B71">
-        <v>4332.71</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
-        <v>20</v>
-      </c>
-      <c r="B72">
-        <v>2447.71</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
-        <v>21</v>
-      </c>
-      <c r="B73">
-        <v>3988.9</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
-        <v>22</v>
-      </c>
-      <c r="B74">
-        <v>2375.77</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74">
-        <v>2025</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75">
-        <v>23</v>
-      </c>
-      <c r="B75">
-        <v>2088.65</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
-      </c>
-      <c r="D75">
-        <v>2025</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
-        <v>24</v>
-      </c>
-      <c r="B76">
-        <v>14103.18</v>
-      </c>
-      <c r="C76">
-        <v>1</v>
-      </c>
-      <c r="D76">
-        <v>2025</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77">
-        <v>27</v>
-      </c>
-      <c r="B77">
-        <v>4605.940000000001</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78">
-        <v>28</v>
-      </c>
-      <c r="B78">
-        <v>6545.13</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
-        <v>29</v>
-      </c>
-      <c r="B79">
-        <v>8980.99</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>2025</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
-        <v>30</v>
-      </c>
-      <c r="B80">
-        <v>2220.88</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>2025</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>31</v>
-      </c>
-      <c r="B81">
-        <v>8887.17</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>2025</v>
-      </c>
-      <c r="E81" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6309.66</v>
+        <v>36711.94</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>6038.94</v>
+        <v>48583.35</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>1805.49</v>
+        <v>23366.39</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -477,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>7890.54</v>
+        <v>34512.78</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -494,7 +494,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>7622.33</v>
+        <v>55688.46</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>17544.87</v>
+        <v>39651.05</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -528,7 +528,7 @@
         <v>4</v>
       </c>
       <c r="B8">
-        <v>1905.42</v>
+        <v>7727.37</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1044.7</v>
+        <v>2416.2</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2415.17</v>
+        <v>7630.52</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5303.6</v>
+        <v>19121.19</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -596,7 +596,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5184.47</v>
+        <v>18067.5</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -613,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1553.36</v>
+        <v>14391.72</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -630,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>6895.1</v>
+        <v>62436.85</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -647,7 +647,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>3115.18</v>
+        <v>19623.66</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -664,7 +664,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2957.12</v>
+        <v>22976.52</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -681,7 +681,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>3488.72</v>
+        <v>21772.35</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -698,7 +698,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>6143.24</v>
+        <v>28370.31</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -715,7 +715,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>7854.64</v>
+        <v>25609.93</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -732,7 +732,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>2184.55</v>
+        <v>19005</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -749,7 +749,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1904.36</v>
+        <v>8316.389999999999</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -766,7 +766,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>5438.35</v>
+        <v>56281.38</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -783,7 +783,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>7952.53</v>
+        <v>62723.95</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -800,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>8340.92</v>
+        <v>50954.74</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -817,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="B25">
-        <v>3051.74</v>
+        <v>21522.57</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -834,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="B26">
-        <v>8076.58</v>
+        <v>38519.31</v>
       </c>
       <c r="C26">
         <v>3</v>
@@ -851,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="B27">
-        <v>2846.82</v>
+        <v>13587.25</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -868,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="B28">
-        <v>5273</v>
+        <v>21015.05</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B29">
-        <v>2859.88</v>
+        <v>10544.77</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -902,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="B30">
-        <v>3586.54</v>
+        <v>29469.84</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -919,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="B31">
-        <v>3667.31</v>
+        <v>14291</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -936,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>3928.66</v>
+        <v>21396.45</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -953,7 +953,7 @@
         <v>17</v>
       </c>
       <c r="B33">
-        <v>3320.22</v>
+        <v>26250.86</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -970,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="B34">
-        <v>923.8099999999999</v>
+        <v>4035.97</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -987,7 +987,7 @@
         <v>19</v>
       </c>
       <c r="B35">
-        <v>4986.04</v>
+        <v>19913.85</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1004,7 +1004,7 @@
         <v>20</v>
       </c>
       <c r="B36">
-        <v>1086.5</v>
+        <v>5325.7</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1021,7 +1021,7 @@
         <v>21</v>
       </c>
       <c r="B37">
-        <v>6555.309999999999</v>
+        <v>22282.62</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1038,7 +1038,7 @@
         <v>24</v>
       </c>
       <c r="B38">
-        <v>5885.61</v>
+        <v>33108.32</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1055,7 +1055,7 @@
         <v>25</v>
       </c>
       <c r="B39">
-        <v>3667.99</v>
+        <v>29400.36</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>26</v>
       </c>
       <c r="B40">
-        <v>6259.42</v>
+        <v>19290.09</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1089,7 +1089,7 @@
         <v>27</v>
       </c>
       <c r="B41">
-        <v>3653.25</v>
+        <v>13162.5</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1106,7 +1106,7 @@
         <v>28</v>
       </c>
       <c r="B42">
-        <v>2642.05</v>
+        <v>11137.4</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>31</v>
       </c>
       <c r="B43">
-        <v>11719.82</v>
+        <v>42434.74</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1140,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="B44">
-        <v>5672.85</v>
+        <v>29976.02</v>
       </c>
       <c r="C44">
         <v>2</v>
@@ -1157,7 +1157,7 @@
         <v>4</v>
       </c>
       <c r="B45">
-        <v>4327.82</v>
+        <v>20469.43</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="B46">
-        <v>4515.13</v>
+        <v>21525.35</v>
       </c>
       <c r="C46">
         <v>2</v>
@@ -1191,7 +1191,7 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>4392.82</v>
+        <v>29665.53</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1208,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="B48">
-        <v>6569.1</v>
+        <v>22654.48</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1225,7 +1225,7 @@
         <v>10</v>
       </c>
       <c r="B49">
-        <v>4368.17</v>
+        <v>27794.15</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1242,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="B50">
-        <v>2353.68</v>
+        <v>8942.360000000001</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1259,7 +1259,7 @@
         <v>12</v>
       </c>
       <c r="B51">
-        <v>5981.65</v>
+        <v>26486.27</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1276,7 +1276,7 @@
         <v>13</v>
       </c>
       <c r="B52">
-        <v>4046.06</v>
+        <v>9704.469999999999</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1293,7 +1293,7 @@
         <v>14</v>
       </c>
       <c r="B53">
-        <v>2145.6</v>
+        <v>5815.6</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -1310,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="B54">
-        <v>2525.47</v>
+        <v>8184.83</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1327,7 +1327,7 @@
         <v>18</v>
       </c>
       <c r="B55">
-        <v>4856.68</v>
+        <v>18780.45</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1344,7 +1344,7 @@
         <v>19</v>
       </c>
       <c r="B56">
-        <v>3002.33</v>
+        <v>23732.7</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -1361,7 +1361,7 @@
         <v>20</v>
       </c>
       <c r="B57">
-        <v>2102.41</v>
+        <v>7291.1</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1378,7 +1378,7 @@
         <v>21</v>
       </c>
       <c r="B58">
-        <v>3130.24</v>
+        <v>9459.75</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1395,7 +1395,7 @@
         <v>24</v>
       </c>
       <c r="B59">
-        <v>4723.690000000001</v>
+        <v>21801.33</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         <v>25</v>
       </c>
       <c r="B60">
-        <v>3334.44</v>
+        <v>12669.84</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1429,7 +1429,7 @@
         <v>26</v>
       </c>
       <c r="B61">
-        <v>18545.47</v>
+        <v>57238.78</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1446,7 +1446,7 @@
         <v>27</v>
       </c>
       <c r="B62">
-        <v>10080.83</v>
+        <v>42200.07</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1463,7 +1463,7 @@
         <v>28</v>
       </c>
       <c r="B63">
-        <v>13958.13</v>
+        <v>95702.25999999999</v>
       </c>
       <c r="C63">
         <v>2</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>36711.94</v>
+        <v>20078.49</v>
       </c>
       <c r="C2">
         <v>5</v>
@@ -443,7 +443,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>48583.35</v>
+        <v>23304.62</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>23366.39</v>
+        <v>18561.83</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -474,61 +474,61 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>34512.78</v>
+        <v>21063.46</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>55688.46</v>
+        <v>19773.95</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>39651.05</v>
+        <v>32201.9</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>7727.37</v>
+        <v>29887.28</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>2416.2</v>
+        <v>48708.66</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>7630.52</v>
+        <v>35472.5</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>19121.19</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>18067.5</v>
+        <v>7753.57</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>14391.72</v>
+        <v>7630.52</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>62436.85</v>
+        <v>19608.04</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>19623.66</v>
+        <v>18202.05</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>22976.52</v>
+        <v>9551.92</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>21772.35</v>
+        <v>34424.2</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>28370.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>25609.93</v>
+        <v>15403.61</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>19005</v>
+        <v>13921.35</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>8316.389999999999</v>
+        <v>16758.86</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>56281.38</v>
+        <v>21276.73</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>62723.95</v>
+        <v>17634.6</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>50954.74</v>
+        <v>6381.17</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,61 +814,61 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>21522.57</v>
+        <v>30330.68</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>38519.31</v>
+        <v>31647.45</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>13587.25</v>
+        <v>31765.2</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>21015.05</v>
+        <v>19552.17</v>
       </c>
       <c r="C28">
         <v>3</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>10544.77</v>
+        <v>35882.61</v>
       </c>
       <c r="C29">
         <v>3</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>29469.84</v>
+        <v>13042.5</v>
       </c>
       <c r="C30">
         <v>3</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>14291</v>
+        <v>19948.65</v>
       </c>
       <c r="C31">
         <v>3</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>21396.45</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C32">
         <v>3</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>26250.86</v>
+        <v>25156.89</v>
       </c>
       <c r="C33">
         <v>3</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>4035.97</v>
+        <v>14118.35</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>19913.85</v>
+        <v>19961.1</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>5325.7</v>
+        <v>24428.36</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>22282.62</v>
+        <v>3443.92</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>33108.32</v>
+        <v>17409.2</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>29400.36</v>
+        <v>4729.55</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>19290.09</v>
+        <v>22027.47</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B41">
-        <v>13162.5</v>
+        <v>26877.71</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>11137.4</v>
+        <v>24190.81</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>42434.74</v>
+        <v>18815.44</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,61 +1137,61 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>29976.02</v>
+        <v>13162.5</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44">
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>20469.43</v>
+        <v>9765.5</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B46">
-        <v>21525.35</v>
+        <v>41909.04</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>29665.53</v>
+        <v>26998.77</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>22654.48</v>
+        <v>18480.02</v>
       </c>
       <c r="C48">
         <v>2</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>27794.15</v>
+        <v>21525.35</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>8942.360000000001</v>
+        <v>29313.91</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>26486.27</v>
+        <v>20990.36</v>
       </c>
       <c r="C51">
         <v>2</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>9704.469999999999</v>
+        <v>26256.4</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>5815.6</v>
+        <v>9265.960000000001</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>8184.83</v>
+        <v>22580.88</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>18780.45</v>
+        <v>9109.67</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>23732.7</v>
+        <v>7871.8</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B57">
-        <v>7291.1</v>
+        <v>8339.190000000001</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B58">
-        <v>9459.75</v>
+        <v>17666.8</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>21801.33</v>
+        <v>19478</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B60">
-        <v>12669.84</v>
+        <v>7205.39</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B61">
-        <v>57238.78</v>
+        <v>8843.360000000001</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>42200.07</v>
+        <v>20183.37</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1460,18 +1460,69 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>12027.74</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63">
+        <v>2025</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>53797.58</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2025</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>27</v>
+      </c>
+      <c r="B65">
+        <v>39559.92</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>2025</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
         <v>28</v>
       </c>
-      <c r="B63">
-        <v>95702.25999999999</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2025</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="B66">
+        <v>77821.24000000001</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+      <c r="E66" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,7 +460,7 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>18561.83</v>
+        <v>19666.55</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -477,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>21063.46</v>
+        <v>21883.41</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -494,7 +494,7 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>19773.95</v>
+        <v>45498.4</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>32201.9</v>
+        <v>37547.95</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,129 +525,129 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>29887.28</v>
+        <v>13740.65</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>48708.66</v>
+        <v>9938.049999999999</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>35472.5</v>
+        <v>12054.64</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>7001.320000000001</v>
+        <v>28185.53</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>7753.57</v>
+        <v>11145.94</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>7630.52</v>
+        <v>11480.4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>19608.04</v>
+        <v>16543.97</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>18202.05</v>
+        <v>29887.28</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>9551.92</v>
+        <v>48708.66</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>34424.2</v>
+        <v>35472.5</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>12545.33</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>15403.61</v>
+        <v>7753.57</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>13921.35</v>
+        <v>7630.52</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>16758.86</v>
+        <v>19608.04</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>21276.73</v>
+        <v>18202.05</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>17634.6</v>
+        <v>9551.92</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>6381.17</v>
+        <v>34424.2</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>30330.68</v>
+        <v>12545.33</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>31647.45</v>
+        <v>15403.61</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>31765.2</v>
+        <v>13921.35</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,129 +865,129 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>19552.17</v>
+        <v>16758.86</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>35882.61</v>
+        <v>21276.73</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>13042.5</v>
+        <v>17634.6</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>19948.65</v>
+        <v>6381.17</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>8539.889999999999</v>
+        <v>30330.68</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>25156.89</v>
+        <v>31647.45</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>14118.35</v>
+        <v>31765.2</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>19961.1</v>
+        <v>19552.17</v>
       </c>
       <c r="C35">
         <v>3</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>24428.36</v>
+        <v>35882.61</v>
       </c>
       <c r="C36">
         <v>3</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>3443.92</v>
+        <v>13042.5</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>17409.2</v>
+        <v>19948.65</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>4729.55</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>22027.47</v>
+        <v>25156.89</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>26877.71</v>
+        <v>14118.35</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>24190.81</v>
+        <v>19961.1</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>18815.44</v>
+        <v>24428.36</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>13162.5</v>
+        <v>3443.92</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>9765.5</v>
+        <v>17409.2</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>41909.04</v>
+        <v>4729.55</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,129 +1188,129 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B47">
-        <v>26998.77</v>
+        <v>22027.47</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>18480.02</v>
+        <v>26877.71</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B49">
-        <v>21525.35</v>
+        <v>24190.81</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B50">
-        <v>29313.91</v>
+        <v>18815.44</v>
       </c>
       <c r="C50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B51">
-        <v>20990.36</v>
+        <v>13162.5</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B52">
-        <v>26256.4</v>
+        <v>9765.5</v>
       </c>
       <c r="C52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B53">
-        <v>9265.960000000001</v>
+        <v>41909.04</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>22580.88</v>
+        <v>26998.77</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>9109.67</v>
+        <v>18480.02</v>
       </c>
       <c r="C55">
         <v>2</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>7871.8</v>
+        <v>21525.35</v>
       </c>
       <c r="C56">
         <v>2</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>8339.190000000001</v>
+        <v>29313.91</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B58">
-        <v>17666.8</v>
+        <v>20990.36</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B59">
-        <v>19478</v>
+        <v>26256.4</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>7205.39</v>
+        <v>9265.959999999999</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>8843.360000000001</v>
+        <v>22580.88</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>20183.37</v>
+        <v>9109.67</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>12027.74</v>
+        <v>7871.8</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>53797.58</v>
+        <v>8339.190000000001</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B65">
-        <v>39559.92</v>
+        <v>17666.8</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1511,18 +1511,137 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
+        <v>19</v>
+      </c>
+      <c r="B66">
+        <v>19478</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>20</v>
+      </c>
+      <c r="B67">
+        <v>7205.39</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="B68">
+        <v>8843.360000000001</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>24</v>
+      </c>
+      <c r="B69">
+        <v>20183.37</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>12027.74</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>26</v>
+      </c>
+      <c r="B71">
+        <v>53797.58</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>27</v>
+      </c>
+      <c r="B72">
+        <v>39559.92</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
         <v>28</v>
       </c>
-      <c r="B66">
+      <c r="B73">
         <v>77821.24000000001</v>
       </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>2025</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+      <c r="E73" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>13740.65</v>
+        <v>13948.05</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>11480.4</v>
+        <v>15817.9</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -630,7 +630,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>16543.97</v>
+        <v>20392.32</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,61 +644,61 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>29887.28</v>
+        <v>7699.42</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>48708.66</v>
+        <v>27031.65</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>35472.5</v>
+        <v>6415.3</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18">
-        <v>7001.320000000001</v>
+        <v>29887.28</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>7753.57</v>
+        <v>48708.66</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>7630.52</v>
+        <v>35472.5</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>19608.04</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>18202.05</v>
+        <v>7753.57</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>9551.92</v>
+        <v>7630.52</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>34424.2</v>
+        <v>19608.04</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>12545.33</v>
+        <v>18202.05</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>15403.61</v>
+        <v>9551.92</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>13921.35</v>
+        <v>34424.2</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>16758.86</v>
+        <v>12545.33</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>21276.73</v>
+        <v>15403.61</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>17634.6</v>
+        <v>13921.35</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>6381.17</v>
+        <v>16758.86</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>30330.68</v>
+        <v>21276.73</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>31647.45</v>
+        <v>17634.6</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>31765.2</v>
+        <v>6381.17</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,61 +984,61 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>19552.17</v>
+        <v>30330.68</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>35882.61</v>
+        <v>31647.45</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>13042.5</v>
+        <v>31765.2</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>19948.65</v>
+        <v>19552.17</v>
       </c>
       <c r="C38">
         <v>3</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>8539.889999999999</v>
+        <v>35882.61</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B40">
-        <v>25156.89</v>
+        <v>13042.5</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>14118.35</v>
+        <v>19948.65</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>19961.1</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>24428.36</v>
+        <v>25156.89</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>3443.92</v>
+        <v>14118.35</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B45">
-        <v>17409.2</v>
+        <v>19961.1</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>4729.55</v>
+        <v>24428.36</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>22027.47</v>
+        <v>3443.92</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B48">
-        <v>26877.71</v>
+        <v>17409.2</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>24190.81</v>
+        <v>4729.55</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>18815.44</v>
+        <v>22027.47</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B51">
-        <v>13162.5</v>
+        <v>26877.71</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B52">
-        <v>9765.5</v>
+        <v>24190.81</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B53">
-        <v>41909.04</v>
+        <v>18815.44</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,61 +1307,61 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B54">
-        <v>26998.77</v>
+        <v>13162.5</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B55">
-        <v>18480.02</v>
+        <v>9765.5</v>
       </c>
       <c r="C55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55">
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B56">
-        <v>21525.35</v>
+        <v>41909.04</v>
       </c>
       <c r="C56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56">
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>29313.91</v>
+        <v>26998.77</v>
       </c>
       <c r="C57">
         <v>2</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>20990.36</v>
+        <v>18480.02</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>26256.4</v>
+        <v>21525.35</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>9265.959999999999</v>
+        <v>29313.91</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>22580.88</v>
+        <v>20990.36</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>9109.67</v>
+        <v>26256.4</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B63">
-        <v>7871.8</v>
+        <v>9265.959999999999</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B64">
-        <v>8339.190000000001</v>
+        <v>22580.88</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>17666.8</v>
+        <v>9109.67</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>19478</v>
+        <v>7871.8</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <v>7205.39</v>
+        <v>8339.190000000001</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B68">
-        <v>8843.360000000001</v>
+        <v>17666.8</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>20183.37</v>
+        <v>19478</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B70">
-        <v>12027.74</v>
+        <v>7205.39</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B71">
-        <v>53797.58</v>
+        <v>8843.360000000001</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>39559.92</v>
+        <v>20183.37</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1630,18 +1630,69 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73">
+        <v>12027.74</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>26</v>
+      </c>
+      <c r="B74">
+        <v>53797.58</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+      <c r="D74">
+        <v>2025</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>27</v>
+      </c>
+      <c r="B75">
+        <v>39559.92</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
         <v>28</v>
       </c>
-      <c r="B73">
+      <c r="B76">
         <v>77821.24000000001</v>
       </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>27031.65</v>
+        <v>27159.15</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -681,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>6415.3</v>
+        <v>9879.41</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,27 +695,27 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B18">
-        <v>29887.28</v>
+        <v>12407.86</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
-        <v>48708.66</v>
+        <v>29887.28</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>35472.5</v>
+        <v>48708.66</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>7001.320000000001</v>
+        <v>35472.5</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>7753.57</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>7630.52</v>
+        <v>7753.57</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>18202.05</v>
+        <v>19608.04</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>9551.92</v>
+        <v>18202.05</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>34424.2</v>
+        <v>9551.92</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>12545.33</v>
+        <v>34424.2</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>13921.35</v>
+        <v>15403.61</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>16758.86</v>
+        <v>13921.35</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>21276.73</v>
+        <v>16758.86</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>17634.6</v>
+        <v>21276.73</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>6381.17</v>
+        <v>17634.6</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>30330.68</v>
+        <v>6381.17</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>31647.45</v>
+        <v>30226.28</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>31765.2</v>
+        <v>31647.45</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,27 +1035,27 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>19552.17</v>
+        <v>31765.2</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>35882.61</v>
+        <v>19552.17</v>
       </c>
       <c r="C39">
         <v>3</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>13042.5</v>
+        <v>35882.61</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>8539.889999999999</v>
+        <v>19948.65</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>25156.89</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>14118.35</v>
+        <v>25156.89</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>19961.1</v>
+        <v>14118.35</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>24428.36</v>
+        <v>19961.1</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>3443.92</v>
+        <v>24428.36</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>22027.47</v>
+        <v>4729.55</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>24190.81</v>
+        <v>26877.71</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>18815.44</v>
+        <v>24190.81</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54">
-        <v>13162.5</v>
+        <v>18815.44</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <v>41909.04</v>
+        <v>9765.5</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,27 +1358,27 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B57">
-        <v>26998.77</v>
+        <v>41909.04</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57">
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>18480.02</v>
+        <v>26998.77</v>
       </c>
       <c r="C58">
         <v>2</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>21525.35</v>
+        <v>18480.02</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>29313.91</v>
+        <v>21525.35</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>20990.36</v>
+        <v>29313.91</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>26256.4</v>
+        <v>20990.36</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>9265.959999999999</v>
+        <v>26256.4</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>22580.88</v>
+        <v>9265.959999999999</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>9109.67</v>
+        <v>22580.88</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>7871.8</v>
+        <v>9109.67</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>8339.190000000001</v>
+        <v>7871.8</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>17666.8</v>
+        <v>8339.190000000001</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>19478</v>
+        <v>17666.8</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>7205.39</v>
+        <v>19478</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71">
-        <v>8843.360000000001</v>
+        <v>7205.39</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B72">
-        <v>20183.37</v>
+        <v>8843.360000000001</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>12027.74</v>
+        <v>20183.37</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74">
-        <v>53797.58</v>
+        <v>12027.74</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75">
-        <v>39559.92</v>
+        <v>53797.58</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1681,18 +1681,35 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
+        <v>27</v>
+      </c>
+      <c r="B76">
+        <v>39559.92</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
         <v>28</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>77821.24000000001</v>
       </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>2025</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +630,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>20392.32</v>
+        <v>20625.22</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -698,7 +698,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>12407.86</v>
+        <v>24616.21</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,27 +712,27 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B19">
-        <v>29887.28</v>
+        <v>5180.75</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
-        <v>48708.66</v>
+        <v>29887.28</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>35472.5</v>
+        <v>48708.66</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>7001.320000000001</v>
+        <v>35472.5</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>7753.57</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B24">
-        <v>7630.52</v>
+        <v>7753.57</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>18202.05</v>
+        <v>19608.04</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>9551.92</v>
+        <v>18202.05</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>34424.2</v>
+        <v>9551.92</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B29">
-        <v>12545.33</v>
+        <v>34424.2</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>13921.35</v>
+        <v>15403.61</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>16758.86</v>
+        <v>13921.35</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>21276.73</v>
+        <v>16758.86</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>17634.6</v>
+        <v>21276.73</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>6381.17</v>
+        <v>17634.6</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>30226.28</v>
+        <v>6381.17</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>31647.45</v>
+        <v>30226.28</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>31765.2</v>
+        <v>31647.45</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,27 +1052,27 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>19552.17</v>
+        <v>31765.2</v>
       </c>
       <c r="C39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>35882.61</v>
+        <v>19552.17</v>
       </c>
       <c r="C40">
         <v>3</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>13042.5</v>
+        <v>35882.61</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>8539.889999999999</v>
+        <v>19948.65</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>25156.89</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>14118.35</v>
+        <v>25156.89</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>19961.1</v>
+        <v>14118.35</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>24428.36</v>
+        <v>19961.1</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>3443.92</v>
+        <v>24428.36</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>22027.47</v>
+        <v>4729.55</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>24190.81</v>
+        <v>26877.71</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>18815.44</v>
+        <v>24190.81</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>13162.5</v>
+        <v>18815.44</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>41909.04</v>
+        <v>9765.5</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,27 +1375,27 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B58">
-        <v>26998.77</v>
+        <v>41909.04</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>18480.02</v>
+        <v>26998.77</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>21525.35</v>
+        <v>18480.02</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B61">
-        <v>29313.91</v>
+        <v>21525.35</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>20990.36</v>
+        <v>29313.91</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B63">
-        <v>26256.4</v>
+        <v>20990.36</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>9265.959999999999</v>
+        <v>26256.4</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>22580.88</v>
+        <v>9265.959999999999</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66">
-        <v>9109.67</v>
+        <v>22580.88</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>7871.8</v>
+        <v>9109.67</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>8339.190000000001</v>
+        <v>7871.8</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69">
-        <v>17666.8</v>
+        <v>8339.190000000001</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B70">
-        <v>19478</v>
+        <v>17666.8</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>7205.39</v>
+        <v>19478</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72">
-        <v>8843.360000000001</v>
+        <v>7205.39</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B73">
-        <v>20183.37</v>
+        <v>8843.360000000001</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74">
-        <v>12027.74</v>
+        <v>20183.37</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75">
-        <v>53797.58</v>
+        <v>12027.74</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76">
-        <v>39559.92</v>
+        <v>53797.58</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1698,18 +1698,35 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
+        <v>27</v>
+      </c>
+      <c r="B77">
+        <v>39559.92</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
         <v>28</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>77821.24000000001</v>
       </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>37547.95</v>
+        <v>38247.95</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -698,7 +698,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>24616.21</v>
+        <v>25760.86</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -715,7 +715,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>5180.75</v>
+        <v>11480.51</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,27 +729,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>29887.28</v>
+        <v>1534.16</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
-        <v>48708.66</v>
+        <v>29887.28</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>35472.5</v>
+        <v>48708.66</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>7001.320000000001</v>
+        <v>35472.5</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>7753.57</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>7630.52</v>
+        <v>7753.57</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>18202.05</v>
+        <v>19608.04</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>9551.92</v>
+        <v>18202.05</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>34424.2</v>
+        <v>9551.92</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>12545.33</v>
+        <v>34424.2</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>13921.35</v>
+        <v>15403.61</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>16758.86</v>
+        <v>13921.35</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>21276.73</v>
+        <v>16758.86</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>17634.6</v>
+        <v>21276.73</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>6381.17</v>
+        <v>17634.6</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>30226.28</v>
+        <v>6381.17</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38">
-        <v>31647.45</v>
+        <v>30226.28</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>31765.2</v>
+        <v>31647.45</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,27 +1069,27 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>19552.17</v>
+        <v>31765.2</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>35882.61</v>
+        <v>19552.17</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>13042.5</v>
+        <v>35882.61</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>8539.889999999999</v>
+        <v>19948.65</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>25156.89</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>14118.35</v>
+        <v>25156.89</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>19961.1</v>
+        <v>14118.35</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>24428.36</v>
+        <v>19961.1</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>3443.92</v>
+        <v>24428.36</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <v>22027.47</v>
+        <v>4729.55</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B53">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>24190.81</v>
+        <v>26877.71</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>18815.44</v>
+        <v>24190.81</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>13162.5</v>
+        <v>18815.44</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>41909.04</v>
+        <v>9765.5</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,27 +1392,27 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B59">
-        <v>26998.77</v>
+        <v>41909.04</v>
       </c>
       <c r="C59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D59">
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>18480.02</v>
+        <v>26998.77</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>21525.35</v>
+        <v>18480.02</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>29313.91</v>
+        <v>21525.35</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>20990.36</v>
+        <v>29313.91</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>26256.4</v>
+        <v>20990.36</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B65">
-        <v>9265.959999999999</v>
+        <v>26256.4</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>22580.88</v>
+        <v>9265.959999999999</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>9109.67</v>
+        <v>22580.88</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>7871.8</v>
+        <v>9109.67</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>8339.190000000001</v>
+        <v>7871.8</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B70">
-        <v>17666.8</v>
+        <v>8339.190000000001</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B71">
-        <v>19478</v>
+        <v>17666.8</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>7205.39</v>
+        <v>19478</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B73">
-        <v>8843.360000000001</v>
+        <v>7205.39</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>20183.37</v>
+        <v>8843.360000000001</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75">
-        <v>12027.74</v>
+        <v>20183.37</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76">
-        <v>53797.58</v>
+        <v>12027.74</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B77">
-        <v>39559.92</v>
+        <v>53797.58</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1715,18 +1715,35 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
+        <v>27</v>
+      </c>
+      <c r="B78">
+        <v>39559.92</v>
+      </c>
+      <c r="C78">
+        <v>2</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
         <v>28</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>77821.24000000001</v>
       </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +664,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>27159.15</v>
+        <v>27382.2</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -698,7 +698,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>25760.86</v>
+        <v>27829.18</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -715,7 +715,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>11480.51</v>
+        <v>15948.71</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -732,7 +732,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1534.16</v>
+        <v>19305.51</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,27 +746,27 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>29887.28</v>
+        <v>10955.39</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22">
-        <v>48708.66</v>
+        <v>29887.28</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>35472.5</v>
+        <v>48708.66</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>7001.320000000001</v>
+        <v>35472.5</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>7753.57</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26">
-        <v>7630.52</v>
+        <v>7753.57</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>18202.05</v>
+        <v>19608.04</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>9551.92</v>
+        <v>18202.05</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>34424.2</v>
+        <v>9551.92</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31">
-        <v>12545.33</v>
+        <v>34424.2</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>13921.35</v>
+        <v>15403.61</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>16758.86</v>
+        <v>13921.35</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
-        <v>21276.73</v>
+        <v>16758.86</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>17634.6</v>
+        <v>21276.73</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>6381.17</v>
+        <v>17634.6</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>30226.28</v>
+        <v>6381.17</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B39">
-        <v>31647.45</v>
+        <v>30226.28</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>31765.2</v>
+        <v>31647.45</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,27 +1086,27 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>19552.17</v>
+        <v>31765.2</v>
       </c>
       <c r="C41">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>35882.61</v>
+        <v>19552.17</v>
       </c>
       <c r="C42">
         <v>3</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>13042.5</v>
+        <v>35882.61</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>8539.889999999999</v>
+        <v>19948.65</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B46">
-        <v>25156.89</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>14118.35</v>
+        <v>25156.89</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>19961.1</v>
+        <v>14118.35</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>24428.36</v>
+        <v>19961.1</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>3443.92</v>
+        <v>24428.36</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>22027.47</v>
+        <v>4729.55</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B54">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55">
-        <v>24190.81</v>
+        <v>26877.71</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B56">
-        <v>18815.44</v>
+        <v>24190.81</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57">
-        <v>13162.5</v>
+        <v>18815.44</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>41909.04</v>
+        <v>9765.5</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,27 +1409,27 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B60">
-        <v>26998.77</v>
+        <v>41909.04</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60">
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>18480.02</v>
+        <v>26998.77</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>21525.35</v>
+        <v>18480.02</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B63">
-        <v>29313.91</v>
+        <v>21525.35</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>20990.36</v>
+        <v>29313.91</v>
       </c>
       <c r="C64">
         <v>2</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>26256.4</v>
+        <v>20990.36</v>
       </c>
       <c r="C65">
         <v>2</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>9265.959999999999</v>
+        <v>26256.4</v>
       </c>
       <c r="C66">
         <v>2</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>22580.88</v>
+        <v>9265.959999999999</v>
       </c>
       <c r="C67">
         <v>2</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>9109.67</v>
+        <v>22580.88</v>
       </c>
       <c r="C68">
         <v>2</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>7871.8</v>
+        <v>9109.67</v>
       </c>
       <c r="C69">
         <v>2</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>8339.190000000001</v>
+        <v>7871.8</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>17666.8</v>
+        <v>8339.190000000001</v>
       </c>
       <c r="C71">
         <v>2</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B72">
-        <v>19478</v>
+        <v>17666.8</v>
       </c>
       <c r="C72">
         <v>2</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>7205.39</v>
+        <v>19478</v>
       </c>
       <c r="C73">
         <v>2</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74">
-        <v>8843.360000000001</v>
+        <v>7205.39</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>20183.37</v>
+        <v>8843.360000000001</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76">
-        <v>12027.74</v>
+        <v>20183.37</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77">
-        <v>53797.58</v>
+        <v>12027.74</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>39559.92</v>
+        <v>53797.58</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -1732,18 +1732,35 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>39559.92</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
         <v>28</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>77821.24000000001</v>
       </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>2025</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C80">
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <v>2025</v>
+      </c>
+      <c r="E80" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="8">
   <si>
     <t>Dia</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>03/2025</t>
-  </si>
-  <si>
-    <t>02/2025</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>20625.22</v>
+        <v>21013.72</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -749,7 +746,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>10955.39</v>
+        <v>23465.32</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,27 +760,27 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>29887.28</v>
+        <v>3190.35</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
-        <v>48708.66</v>
+        <v>29887.28</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -797,10 +794,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>35472.5</v>
+        <v>48708.66</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -814,10 +811,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>7001.320000000001</v>
+        <v>35472.5</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +828,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>7753.57</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +845,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>7630.52</v>
+        <v>7753.57</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +862,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +879,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>18202.05</v>
+        <v>19608.04</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +896,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>9551.92</v>
+        <v>18202.05</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +913,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>34424.2</v>
+        <v>9551.92</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +930,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>12545.33</v>
+        <v>34424.2</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +947,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +964,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>13921.35</v>
+        <v>15403.61</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +981,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>16758.86</v>
+        <v>13921.35</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +998,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>21276.73</v>
+        <v>16758.86</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1015,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>17634.6</v>
+        <v>21276.73</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1032,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>6381.17</v>
+        <v>17634.6</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1049,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>30226.28</v>
+        <v>6381.17</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1066,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>31647.45</v>
+        <v>30226.28</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1083,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>31765.2</v>
+        <v>31647.45</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,27 +1100,27 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>19552.17</v>
+        <v>31765.2</v>
       </c>
       <c r="C42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>35882.61</v>
+        <v>19552.17</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -1137,10 +1134,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>13042.5</v>
+        <v>35882.61</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1154,10 +1151,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B45">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1168,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>8539.889999999999</v>
+        <v>19948.65</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1185,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>25156.89</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1202,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>14118.35</v>
+        <v>25156.89</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1219,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>19961.1</v>
+        <v>14118.35</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1236,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>24428.36</v>
+        <v>19961.1</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1253,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>3443.92</v>
+        <v>24428.36</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1270,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1287,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1304,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>22027.47</v>
+        <v>4729.55</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1321,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1338,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>24190.81</v>
+        <v>26877.71</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1355,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B57">
-        <v>18815.44</v>
+        <v>24190.81</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1372,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>13162.5</v>
+        <v>18815.44</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1389,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1406,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>41909.04</v>
+        <v>9765.5</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,342 +1423,19 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B61">
-        <v>26998.77</v>
+        <v>41909.04</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>18480.02</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="D62">
-        <v>2025</v>
-      </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63">
-        <v>5</v>
-      </c>
-      <c r="B63">
-        <v>21525.35</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2025</v>
-      </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64">
-        <v>6</v>
-      </c>
-      <c r="B64">
-        <v>29313.91</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2025</v>
-      </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
-        <v>7</v>
-      </c>
-      <c r="B65">
-        <v>20990.36</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65">
-        <v>2025</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
-        <v>10</v>
-      </c>
-      <c r="B66">
-        <v>26256.4</v>
-      </c>
-      <c r="C66">
-        <v>2</v>
-      </c>
-      <c r="D66">
-        <v>2025</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
-        <v>11</v>
-      </c>
-      <c r="B67">
-        <v>9265.959999999999</v>
-      </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
-        <v>12</v>
-      </c>
-      <c r="B68">
-        <v>22580.88</v>
-      </c>
-      <c r="C68">
-        <v>2</v>
-      </c>
-      <c r="D68">
-        <v>2025</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
-        <v>13</v>
-      </c>
-      <c r="B69">
-        <v>9109.67</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>2025</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>14</v>
-      </c>
-      <c r="B70">
-        <v>7871.8</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
-        <v>17</v>
-      </c>
-      <c r="B71">
-        <v>8339.190000000001</v>
-      </c>
-      <c r="C71">
-        <v>2</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
-        <v>18</v>
-      </c>
-      <c r="B72">
-        <v>17666.8</v>
-      </c>
-      <c r="C72">
-        <v>2</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
-        <v>19</v>
-      </c>
-      <c r="B73">
-        <v>19478</v>
-      </c>
-      <c r="C73">
-        <v>2</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
-        <v>20</v>
-      </c>
-      <c r="B74">
-        <v>7205.39</v>
-      </c>
-      <c r="C74">
-        <v>2</v>
-      </c>
-      <c r="D74">
-        <v>2025</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75">
-        <v>21</v>
-      </c>
-      <c r="B75">
-        <v>8843.360000000001</v>
-      </c>
-      <c r="C75">
-        <v>2</v>
-      </c>
-      <c r="D75">
-        <v>2025</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
-        <v>24</v>
-      </c>
-      <c r="B76">
-        <v>20183.37</v>
-      </c>
-      <c r="C76">
-        <v>2</v>
-      </c>
-      <c r="D76">
-        <v>2025</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77">
-        <v>25</v>
-      </c>
-      <c r="B77">
-        <v>12027.74</v>
-      </c>
-      <c r="C77">
-        <v>2</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78">
-        <v>26</v>
-      </c>
-      <c r="B78">
-        <v>53797.58</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
-        <v>27</v>
-      </c>
-      <c r="B79">
-        <v>39559.92</v>
-      </c>
-      <c r="C79">
-        <v>2</v>
-      </c>
-      <c r="D79">
-        <v>2025</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
-        <v>28</v>
-      </c>
-      <c r="B80">
-        <v>77821.24000000001</v>
-      </c>
-      <c r="C80">
-        <v>2</v>
-      </c>
-      <c r="D80">
-        <v>2025</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Período</t>
+  </si>
+  <si>
+    <t>06/2025</t>
   </si>
   <si>
     <t>05/2025</t>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +426,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>20078.49</v>
+        <v>3672.65</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -437,10 +440,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>23304.62</v>
+        <v>20078.49</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -449,15 +452,15 @@
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>19666.55</v>
+        <v>23304.62</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -466,15 +469,15 @@
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -483,15 +486,15 @@
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>45498.4</v>
+        <v>21883.41</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -500,15 +503,15 @@
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>38247.95</v>
+        <v>45498.4</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -517,15 +520,15 @@
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>13948.05</v>
+        <v>38247.95</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -534,15 +537,15 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>9938.049999999999</v>
+        <v>13948.05</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -551,15 +554,15 @@
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>12054.64</v>
+        <v>9938.049999999999</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -568,15 +571,15 @@
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>28185.53</v>
+        <v>34513.04</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -585,15 +588,15 @@
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>11145.94</v>
+        <v>28185.53</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -602,15 +605,15 @@
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>15817.9</v>
+        <v>11145.94</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -619,15 +622,15 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>21013.72</v>
+        <v>15817.9</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -636,15 +639,15 @@
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>7699.42</v>
+        <v>21165.12</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -653,15 +656,15 @@
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>27382.2</v>
+        <v>8933.42</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -670,15 +673,15 @@
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>9879.41</v>
+        <v>27740.2</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -687,15 +690,15 @@
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>27829.18</v>
+        <v>9879.41</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -704,15 +707,15 @@
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>15948.71</v>
+        <v>27841.33</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -721,15 +724,15 @@
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>19305.51</v>
+        <v>16252.73</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -738,15 +741,15 @@
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>23465.32</v>
+        <v>24171.51</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -755,15 +758,15 @@
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>3190.35</v>
+        <v>26203.72</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -772,18 +775,18 @@
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>29887.28</v>
+        <v>18963.96</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>2025</v>
@@ -794,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24">
-        <v>48708.66</v>
+        <v>29887.28</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -806,15 +809,15 @@
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>35472.5</v>
+        <v>48708.66</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -823,15 +826,15 @@
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>7001.320000000001</v>
+        <v>35472.5</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -840,15 +843,15 @@
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>7753.57</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -857,15 +860,15 @@
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>7630.52</v>
+        <v>7753.57</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -874,15 +877,15 @@
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -891,15 +894,15 @@
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>18202.05</v>
+        <v>19608.04</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -908,15 +911,15 @@
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>9551.92</v>
+        <v>18202.05</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -925,15 +928,15 @@
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>34424.2</v>
+        <v>9551.92</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -942,15 +945,15 @@
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>12545.33</v>
+        <v>34424.2</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -959,15 +962,15 @@
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -976,15 +979,15 @@
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>13921.35</v>
+        <v>15403.61</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -993,15 +996,15 @@
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>16758.86</v>
+        <v>13921.35</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1010,15 +1013,15 @@
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>21276.73</v>
+        <v>16758.86</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1027,15 +1030,15 @@
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>17634.6</v>
+        <v>21276.73</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1044,15 +1047,15 @@
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>6381.17</v>
+        <v>17634.6</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1061,15 +1064,15 @@
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>30226.28</v>
+        <v>6381.17</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1078,15 +1081,15 @@
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41">
-        <v>31647.45</v>
+        <v>30226.28</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1095,15 +1098,15 @@
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42">
-        <v>31765.2</v>
+        <v>31647.45</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1112,18 +1115,18 @@
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B43">
-        <v>19552.17</v>
+        <v>31765.2</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>2025</v>
@@ -1134,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>35882.61</v>
+        <v>19552.17</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -1146,15 +1149,15 @@
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>13042.5</v>
+        <v>35882.61</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1163,15 +1166,15 @@
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1180,15 +1183,15 @@
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>8539.889999999999</v>
+        <v>19948.65</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1197,15 +1200,15 @@
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>25156.89</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1214,15 +1217,15 @@
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>14118.35</v>
+        <v>25156.89</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1231,15 +1234,15 @@
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>19961.1</v>
+        <v>14118.35</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1248,15 +1251,15 @@
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>24428.36</v>
+        <v>19961.1</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1265,15 +1268,15 @@
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>3443.92</v>
+        <v>24428.36</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1282,15 +1285,15 @@
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B53">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1299,15 +1302,15 @@
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1316,15 +1319,15 @@
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>22027.47</v>
+        <v>4729.55</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1333,15 +1336,15 @@
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B56">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1350,15 +1353,15 @@
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57">
-        <v>24190.81</v>
+        <v>26877.71</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1367,15 +1370,15 @@
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B58">
-        <v>18815.44</v>
+        <v>24190.81</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1384,15 +1387,15 @@
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59">
-        <v>13162.5</v>
+        <v>18815.44</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1401,15 +1404,15 @@
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1418,24 +1421,41 @@
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
+        <v>28</v>
+      </c>
+      <c r="B61">
+        <v>9765.5</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <v>2025</v>
+      </c>
+      <c r="E61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
         <v>31</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>41909.04</v>
       </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-      <c r="D61">
-        <v>2025</v>
-      </c>
-      <c r="E61" t="s">
-        <v>7</v>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2025</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3672.65</v>
+        <v>34060.21</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -440,27 +440,27 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>20078.49</v>
+        <v>4281.25</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>23304.62</v>
+        <v>20078.49</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>19666.55</v>
+        <v>23304.62</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>45498.4</v>
+        <v>21883.41</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>38247.95</v>
+        <v>45498.4</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>13948.05</v>
+        <v>38247.95</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>9938.049999999999</v>
+        <v>13948.05</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>34513.04</v>
+        <v>9938.049999999999</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>28185.53</v>
+        <v>34513.04</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>11145.94</v>
+        <v>28185.53</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>15817.9</v>
+        <v>11145.94</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>21165.12</v>
+        <v>15817.9</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>8933.42</v>
+        <v>21165.12</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>27740.2</v>
+        <v>8933.42</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>9879.41</v>
+        <v>27740.2</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>27841.33</v>
+        <v>9879.41</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>16252.73</v>
+        <v>27080.43</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>24171.51</v>
+        <v>16252.73</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>26203.72</v>
+        <v>24171.51</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>18963.96</v>
+        <v>28806.18</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,27 +797,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>29887.28</v>
+        <v>18949.46</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
-        <v>48708.66</v>
+        <v>29887.28</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>35472.5</v>
+        <v>48708.66</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>7001.320000000001</v>
+        <v>35472.5</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>7753.57</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>7630.52</v>
+        <v>7753.57</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>18202.05</v>
+        <v>19608.04</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>9551.92</v>
+        <v>18202.05</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>34424.2</v>
+        <v>9551.92</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>12545.33</v>
+        <v>34424.2</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>13921.35</v>
+        <v>15403.61</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>16758.86</v>
+        <v>13921.35</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <v>21276.73</v>
+        <v>16758.86</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>17634.6</v>
+        <v>21276.73</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>6381.17</v>
+        <v>17634.6</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>30226.28</v>
+        <v>6381.17</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>31647.45</v>
+        <v>30226.28</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>31765.2</v>
+        <v>31647.45</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,27 +1137,27 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>19552.17</v>
+        <v>31765.2</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>35882.61</v>
+        <v>19552.17</v>
       </c>
       <c r="C45">
         <v>3</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>13042.5</v>
+        <v>35882.61</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>8539.889999999999</v>
+        <v>19948.65</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>25156.89</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>14118.35</v>
+        <v>25156.89</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>19961.1</v>
+        <v>14118.35</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>24428.36</v>
+        <v>19961.1</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>3443.92</v>
+        <v>24428.36</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
-        <v>22027.47</v>
+        <v>4729.55</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58">
-        <v>24190.81</v>
+        <v>26877.71</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B59">
-        <v>18815.44</v>
+        <v>24190.81</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60">
-        <v>13162.5</v>
+        <v>18815.44</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,18 +1443,35 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
+        <v>28</v>
+      </c>
+      <c r="B62">
+        <v>9765.5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>2025</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
         <v>31</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>41909.04</v>
       </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-      <c r="D62">
-        <v>2025</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>2025</v>
+      </c>
+      <c r="E63" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>34060.21</v>
+        <v>42933.45</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4281.25</v>
+        <v>18600.98</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -457,27 +457,27 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>20078.49</v>
+        <v>5167.9</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>23304.62</v>
+        <v>20078.49</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>19666.55</v>
+        <v>23304.62</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>45498.4</v>
+        <v>21883.41</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>38247.95</v>
+        <v>45498.4</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>13948.05</v>
+        <v>38247.95</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>9938.049999999999</v>
+        <v>13948.05</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>34513.04</v>
+        <v>9938.049999999999</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>28185.53</v>
+        <v>34513.04</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>11145.94</v>
+        <v>28185.53</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>15817.9</v>
+        <v>11145.94</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>21165.12</v>
+        <v>15817.9</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>8933.42</v>
+        <v>21827.07</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>27740.2</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>9879.41</v>
+        <v>27740.2</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>27080.43</v>
+        <v>9879.41</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>16252.73</v>
+        <v>27080.43</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>24171.51</v>
+        <v>16252.73</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>28806.18</v>
+        <v>24291.06</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>18949.46</v>
+        <v>30467.22</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,27 +814,27 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>29887.28</v>
+        <v>21933.56</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
-        <v>48708.66</v>
+        <v>29887.28</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>35472.5</v>
+        <v>48708.66</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>7001.320000000001</v>
+        <v>35472.5</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>7753.57</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>7630.52</v>
+        <v>7753.57</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>18202.05</v>
+        <v>19608.04</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>9551.92</v>
+        <v>18202.05</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>34424.2</v>
+        <v>9551.92</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>12545.33</v>
+        <v>34424.2</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>13921.35</v>
+        <v>15403.61</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>16758.86</v>
+        <v>13921.35</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>21276.73</v>
+        <v>16758.86</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>17634.6</v>
+        <v>21276.73</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
-        <v>6381.17</v>
+        <v>17634.6</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>30226.28</v>
+        <v>6381.17</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>31647.45</v>
+        <v>30226.28</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>31765.2</v>
+        <v>31647.45</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,27 +1154,27 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>19552.17</v>
+        <v>31765.2</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>35882.61</v>
+        <v>19552.17</v>
       </c>
       <c r="C46">
         <v>3</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>13042.5</v>
+        <v>35882.61</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49">
-        <v>8539.889999999999</v>
+        <v>19948.65</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50">
-        <v>25156.89</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>14118.35</v>
+        <v>25156.89</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>19961.1</v>
+        <v>14118.35</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>24428.36</v>
+        <v>19961.1</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B54">
-        <v>3443.92</v>
+        <v>24428.36</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B55">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>22027.47</v>
+        <v>4729.55</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B58">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59">
-        <v>24190.81</v>
+        <v>26877.71</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B60">
-        <v>18815.44</v>
+        <v>24190.81</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>13162.5</v>
+        <v>18815.44</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,18 +1460,35 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
+        <v>28</v>
+      </c>
+      <c r="B63">
+        <v>9765.5</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63">
+        <v>2025</v>
+      </c>
+      <c r="E63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
         <v>31</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>41909.04</v>
       </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-      <c r="D63">
-        <v>2025</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2025</v>
+      </c>
+      <c r="E64" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>18600.98</v>
+        <v>31344.73</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>5167.9</v>
+        <v>9837.75</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -474,27 +474,27 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>20078.49</v>
+        <v>3376.9</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>23304.62</v>
+        <v>20185.74</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>19666.55</v>
+        <v>23304.62</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>45498.4</v>
+        <v>21883.41</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>38247.95</v>
+        <v>45498.4</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>13948.05</v>
+        <v>38247.95</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>9938.049999999999</v>
+        <v>13948.05</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>34513.04</v>
+        <v>9938.049999999999</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>28185.53</v>
+        <v>34513.04</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>11145.94</v>
+        <v>28185.53</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>15817.9</v>
+        <v>11145.94</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>21827.07</v>
+        <v>15817.9</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>9475.469999999999</v>
+        <v>21827.07</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>27740.2</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>9879.41</v>
+        <v>27740.2</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>27080.43</v>
+        <v>9879.41</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>16252.73</v>
+        <v>27080.43</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>24291.06</v>
+        <v>16252.73</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>30467.22</v>
+        <v>24291.06</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>21933.56</v>
+        <v>30467.22</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,27 +831,27 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>29887.28</v>
+        <v>21933.56</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27">
-        <v>48708.66</v>
+        <v>29887.28</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>35472.5</v>
+        <v>48708.66</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>7001.320000000001</v>
+        <v>35472.5</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>7753.57</v>
+        <v>7001.320000000001</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>7630.52</v>
+        <v>7753.57</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>18202.05</v>
+        <v>19608.04</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>9551.92</v>
+        <v>18202.05</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>34424.2</v>
+        <v>9551.92</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>12545.33</v>
+        <v>34424.2</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>13921.35</v>
+        <v>15403.61</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>16758.86</v>
+        <v>13921.35</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>21276.73</v>
+        <v>16758.86</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41">
-        <v>17634.6</v>
+        <v>21276.73</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>6381.17</v>
+        <v>17634.6</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>30226.28</v>
+        <v>6381.17</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>31647.45</v>
+        <v>30226.28</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45">
-        <v>31765.2</v>
+        <v>31647.45</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,27 +1171,27 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B46">
-        <v>19552.17</v>
+        <v>31765.2</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>35882.61</v>
+        <v>19552.17</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>13042.5</v>
+        <v>35882.61</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>8539.889999999999</v>
+        <v>19948.65</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>25156.89</v>
+        <v>8539.889999999999</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
-        <v>14118.35</v>
+        <v>25156.89</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>19961.1</v>
+        <v>14118.35</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>24428.36</v>
+        <v>19961.1</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B55">
-        <v>3443.92</v>
+        <v>24428.36</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B56">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
-        <v>22027.47</v>
+        <v>4729.55</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B59">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60">
-        <v>24190.81</v>
+        <v>26877.71</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>18815.44</v>
+        <v>24190.81</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>13162.5</v>
+        <v>18815.44</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,18 +1477,35 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
+        <v>28</v>
+      </c>
+      <c r="B64">
+        <v>9765.5</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>2025</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
         <v>31</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>41909.04</v>
       </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-      <c r="D64">
-        <v>2025</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2025</v>
+      </c>
+      <c r="E65" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>42933.45</v>
+        <v>45494.9</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>31344.73</v>
+        <v>35152.23</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9837.75</v>
+        <v>11320.2</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3376.9</v>
+        <v>12775.09</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -491,27 +491,27 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>20185.74</v>
+        <v>11707.47</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>23304.62</v>
+        <v>20527.69</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>19666.55</v>
+        <v>29728.09</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>45498.4</v>
+        <v>21883.41</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>38247.95</v>
+        <v>45507.35</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>13948.05</v>
+        <v>39733.42</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>9938.049999999999</v>
+        <v>15526.25</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>34513.04</v>
+        <v>10155.95</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>28185.53</v>
+        <v>34422.14</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>11145.94</v>
+        <v>28325.88</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>15817.9</v>
+        <v>12000.74</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>21827.07</v>
+        <v>17756.75</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>9475.469999999999</v>
+        <v>23596.93</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>27740.2</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>9879.41</v>
+        <v>27766.95</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>27080.43</v>
+        <v>11645.65</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>16252.73</v>
+        <v>28728.78</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>24291.06</v>
+        <v>15789.98</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>30467.22</v>
+        <v>24463.01</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>21933.56</v>
+        <v>30467.22</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,27 +848,27 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>29887.28</v>
+        <v>23705.99</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>48708.66</v>
+        <v>31020.03</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>35472.5</v>
+        <v>48750.66</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>7001.320000000001</v>
+        <v>35050.2</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>7753.57</v>
+        <v>7210.620000000001</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>19608.04</v>
+        <v>7630.52</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>18202.05</v>
+        <v>19095.69</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>9551.92</v>
+        <v>16847.65</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>34424.2</v>
+        <v>6701.92</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>15403.61</v>
+        <v>12545.33</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>13921.35</v>
+        <v>14981.31</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>16758.86</v>
+        <v>14369.85</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>21276.73</v>
+        <v>18901.75</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>17634.6</v>
+        <v>22062.13</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>6381.17</v>
+        <v>17945.9</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>30226.28</v>
+        <v>6150.49</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>31647.45</v>
+        <v>31243.48</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>31765.2</v>
+        <v>33546.1</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,27 +1188,27 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B47">
-        <v>19552.17</v>
+        <v>32403.27</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>35882.61</v>
+        <v>21522.57</v>
       </c>
       <c r="C48">
         <v>3</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>13042.5</v>
+        <v>37651.31</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>19948.65</v>
+        <v>13042.5</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51">
-        <v>8539.889999999999</v>
+        <v>20815.25</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>25156.89</v>
+        <v>10330.44</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>14118.35</v>
+        <v>25429.94</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>19961.1</v>
+        <v>14199.5</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>24428.36</v>
+        <v>21396.45</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56">
-        <v>3443.92</v>
+        <v>26250.86</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B57">
-        <v>17409.2</v>
+        <v>3443.92</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>4729.55</v>
+        <v>17409.2</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>22027.47</v>
+        <v>5023.65</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B60">
-        <v>26877.71</v>
+        <v>22027.47</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>24190.81</v>
+        <v>30601.16</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B62">
-        <v>18815.44</v>
+        <v>27204.51</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>9765.5</v>
+        <v>13162.5</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,18 +1494,35 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
+        <v>28</v>
+      </c>
+      <c r="B65">
+        <v>11137.4</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2025</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
         <v>31</v>
       </c>
-      <c r="B65">
-        <v>41909.04</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>2025</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="B66">
+        <v>41434.74</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+      <c r="E66" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>45494.9</v>
+        <v>45067.52</v>
       </c>
       <c r="C2">
         <v>6</v>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>35152.23</v>
+        <v>35051.88</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -477,7 +477,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>12775.09</v>
+        <v>12749.74</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>11707.47</v>
+        <v>12209.32</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -508,27 +508,27 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>20527.69</v>
+        <v>10140.2</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>29728.09</v>
+        <v>20463.44</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>45507.35</v>
+        <v>21883.41</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>39733.42</v>
+        <v>45418.95</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>15526.25</v>
+        <v>39575.07</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>34422.14</v>
+        <v>10155.95</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>28325.88</v>
+        <v>34413.69</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>23596.93</v>
+        <v>17756.75</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>11645.65</v>
+        <v>27766.95</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>28728.78</v>
+        <v>11639.15</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>15789.98</v>
+        <v>28728.43</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>24463.01</v>
+        <v>15807.63</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>30467.22</v>
+        <v>24406.06</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>23705.99</v>
+        <v>30466.72</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,27 +865,27 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>48750.66</v>
+        <v>31020.03</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>35050.2</v>
+        <v>48732.41</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>7210.620000000001</v>
+        <v>35050.25</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B32">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>16847.65</v>
+        <v>19095.69</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B37">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>14369.85</v>
+        <v>14981.31</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B41">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>17945.9</v>
+        <v>22062.13</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
-        <v>6150.49</v>
+        <v>17802.7</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>31243.48</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,27 +1205,27 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>37651.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>13042.5</v>
+        <v>37624.31</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>20815.25</v>
+        <v>13035.05</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>14199.5</v>
+        <v>25429.94</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>21396.45</v>
+        <v>14198.2</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57">
-        <v>3443.92</v>
+        <v>26250.86</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B58">
-        <v>17409.2</v>
+        <v>3373.67</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>5023.65</v>
+        <v>17408.6</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60">
-        <v>22027.47</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B61">
-        <v>30601.16</v>
+        <v>22003.87</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>27204.51</v>
+        <v>30411.66</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,18 +1511,35 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
+        <v>28</v>
+      </c>
+      <c r="B66">
+        <v>11137.4</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
         <v>31</v>
       </c>
-      <c r="B66">
-        <v>41434.74</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66">
-        <v>2025</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="B67">
+        <v>41403.64</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,7 +494,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>12209.32</v>
+        <v>12978.82</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>10140.2</v>
+        <v>10572.4</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -525,27 +525,27 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8">
-        <v>20463.44</v>
+        <v>4076.75</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,27 +882,27 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30">
-        <v>48732.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>35050.25</v>
+        <v>48732.41</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B46">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,27 +1222,27 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C50">
         <v>3</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B59">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B62">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,18 +1528,35 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
+        <v>28</v>
+      </c>
+      <c r="B67">
+        <v>11137.4</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
         <v>31</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>41403.64</v>
       </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,27 +542,27 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>20463.44</v>
+        <v>19798.81</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,27 +899,27 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
-        <v>48732.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B47">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,27 +1239,27 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C51">
         <v>3</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B60">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B65">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,18 +1545,35 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="B68">
+        <v>11137.4</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
         <v>31</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>41403.64</v>
       </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
-        <v>2025</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
+      </c>
+      <c r="E69" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>19798.81</v>
+        <v>19810.51</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,27 +559,27 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>20463.44</v>
+        <v>17099.73</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,27 +916,27 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B35">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B44">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B48">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,27 +1256,27 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B53">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B54">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B57">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B61">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B62">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B63">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B64">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B66">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B67">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,18 +1562,35 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
+        <v>28</v>
+      </c>
+      <c r="B69">
+        <v>11137.4</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
         <v>31</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>41403.64</v>
       </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>2025</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
+      </c>
+      <c r="E70" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>19810.51</v>
+        <v>20439.56</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -562,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>17099.73</v>
+        <v>17899.38</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,27 +576,27 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>20463.44</v>
+        <v>6825.7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,27 +933,27 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B49">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,27 +1273,27 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C52">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C53">
         <v>3</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B65">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B69">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,18 +1579,35 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <v>11137.4</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
         <v>31</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>41403.64</v>
       </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
+      </c>
+      <c r="E71" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -579,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6825.7</v>
+        <v>6825.700000000001</v>
       </c>
       <c r="C11">
         <v>6</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>6825.700000000001</v>
+        <v>8459.48</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,27 +593,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>20463.44</v>
+        <v>23567.89</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,27 +950,27 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B49">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B50">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,27 +1290,27 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B53">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C53">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C54">
         <v>3</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B61">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B66">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,18 +1596,35 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
+        <v>28</v>
+      </c>
+      <c r="B71">
+        <v>11137.4</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
         <v>31</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>41403.64</v>
       </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
+      </c>
+      <c r="E72" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>10572.4</v>
+        <v>10652.15</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -545,7 +545,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>20439.56</v>
+        <v>19810.51</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -579,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>8459.48</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>23567.89</v>
+        <v>24791.07</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,27 +610,27 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>20463.44</v>
+        <v>13628.15</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C14">
         <v>5</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,27 +967,27 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B50">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B51">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,27 +1307,27 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B54">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B57">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B60">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B61">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B62">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B63">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B65">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B66">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B67">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,18 +1613,35 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
+        <v>28</v>
+      </c>
+      <c r="B72">
+        <v>11137.4</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
         <v>31</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>41403.64</v>
       </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+      <c r="E73" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>35051.88</v>
+        <v>35136.72</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -511,7 +511,7 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>10652.15</v>
+        <v>11059.45</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -562,7 +562,7 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>17899.38</v>
+        <v>17504.38</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -613,7 +613,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>13628.15</v>
+        <v>14944.85</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,44 +627,44 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>20463.44</v>
+        <v>11720.33</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>29720.49</v>
+        <v>1769</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>19666.55</v>
+        <v>20463.44</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>21883.41</v>
+        <v>29720.49</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>45418.95</v>
+        <v>19666.55</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>39575.07</v>
+        <v>21883.41</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>15499.7</v>
+        <v>45418.95</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>10155.95</v>
+        <v>39575.07</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>34413.69</v>
+        <v>15499.7</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>28325.85</v>
+        <v>10155.95</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>12000.74</v>
+        <v>34413.69</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>17756.75</v>
+        <v>28325.85</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>23593.88</v>
+        <v>12000.74</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>9475.469999999999</v>
+        <v>17756.75</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>27766.95</v>
+        <v>23593.88</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>11639.15</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>28728.43</v>
+        <v>27766.95</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>15807.63</v>
+        <v>11639.15</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>24406.06</v>
+        <v>28728.43</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>30466.72</v>
+        <v>15807.63</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>23720.49</v>
+        <v>24406.06</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,44 +984,44 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>31020.03</v>
+        <v>30466.72</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>48690.41</v>
+        <v>23720.49</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B37">
-        <v>35050.25</v>
+        <v>31020.03</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>7210.62</v>
+        <v>48690.41</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>10042.97</v>
+        <v>35050.25</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>7630.52</v>
+        <v>7210.62</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>19095.69</v>
+        <v>10042.97</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>16812.5</v>
+        <v>7630.52</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>6701.92</v>
+        <v>19095.69</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>38115.7</v>
+        <v>16812.5</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>12545.33</v>
+        <v>6701.92</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>14981.31</v>
+        <v>38115.7</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B47">
-        <v>14359.25</v>
+        <v>12545.33</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>18901.75</v>
+        <v>14981.31</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>22062.13</v>
+        <v>14359.25</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>17802.7</v>
+        <v>18901.75</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>6150.450000000001</v>
+        <v>22062.13</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>31344.88</v>
+        <v>17802.7</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>33546.1</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B54">
-        <v>32403.27</v>
+        <v>31344.88</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,44 +1324,44 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B55">
-        <v>21522.57</v>
+        <v>33546.1</v>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B56">
-        <v>37624.31</v>
+        <v>32403.27</v>
       </c>
       <c r="C56">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>13035.05</v>
+        <v>21522.57</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>20789.35</v>
+        <v>37624.31</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>10330.44</v>
+        <v>13035.05</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>25429.94</v>
+        <v>20789.35</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>14198.2</v>
+        <v>10330.44</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>21391.35</v>
+        <v>25429.94</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>26250.86</v>
+        <v>14198.2</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>3373.67</v>
+        <v>21391.35</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>17408.6</v>
+        <v>26250.86</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B66">
-        <v>5005.650000000001</v>
+        <v>3373.67</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>22003.87</v>
+        <v>17408.6</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B68">
-        <v>30411.66</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B69">
-        <v>27184.21</v>
+        <v>22003.87</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B70">
-        <v>19290.09</v>
+        <v>30411.66</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B71">
-        <v>13162.5</v>
+        <v>27184.21</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B72">
-        <v>11137.4</v>
+        <v>19290.09</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,18 +1630,52 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
+        <v>27</v>
+      </c>
+      <c r="B73">
+        <v>13162.5</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>28</v>
+      </c>
+      <c r="B74">
+        <v>11137.4</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <v>2025</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
         <v>31</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>41403.64</v>
       </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
+      </c>
+      <c r="E75" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>1769</v>
+        <v>4733.5</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,27 +661,27 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>20463.44</v>
+        <v>119.13</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C17">
         <v>5</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B28">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B29">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B30">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,27 +1018,27 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C38">
         <v>4</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B41">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B46">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B50">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B55">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B56">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,27 +1358,27 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B57">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B70">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,18 +1664,35 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
+        <v>28</v>
+      </c>
+      <c r="B75">
+        <v>11137.4</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
         <v>31</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>41403.64</v>
       </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>2025</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>4076.75</v>
+        <v>4973.1</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -647,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>4733.5</v>
+        <v>5596.6</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -678,27 +678,27 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>20463.44</v>
+        <v>66443.41</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C18">
         <v>5</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,27 +1035,27 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,27 +1375,27 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B71">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,18 +1681,35 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <v>11137.4</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
         <v>31</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>41403.64</v>
       </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>2025</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -596,7 +596,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>24791.07</v>
+        <v>24877.27</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -681,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>66443.41</v>
+        <v>69364.86</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,27 +695,27 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B18">
-        <v>20463.44</v>
+        <v>13051.24</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C19">
         <v>5</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B30">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B33">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,27 +1052,27 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B43">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B52">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B56">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,27 +1392,27 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B60">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B72">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B73">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,18 +1698,35 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
+        <v>28</v>
+      </c>
+      <c r="B77">
+        <v>11137.4</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
         <v>31</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>41403.64</v>
       </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -630,7 +630,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>11720.33</v>
+        <v>14248.93</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -698,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>13051.24</v>
+        <v>14028.54</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,27 +712,27 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>20463.44</v>
+        <v>13864.82</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C20">
         <v>5</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C21">
         <v>5</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B39">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,27 +1069,27 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B44">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B55">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B57">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>32403.27</v>
+        <v>33546.1</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,27 +1409,27 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>21522.57</v>
+        <v>32403.27</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>37624.31</v>
+        <v>21522.57</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B62">
-        <v>13035.05</v>
+        <v>37624.31</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B63">
-        <v>20789.35</v>
+        <v>13035.05</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>10330.44</v>
+        <v>20789.35</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>25429.94</v>
+        <v>10330.44</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B66">
-        <v>14198.2</v>
+        <v>25429.94</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B67">
-        <v>21391.35</v>
+        <v>14198.2</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>26250.86</v>
+        <v>21391.35</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B69">
-        <v>3373.67</v>
+        <v>26250.86</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B70">
-        <v>17408.6</v>
+        <v>3373.67</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71">
-        <v>5005.650000000001</v>
+        <v>17408.6</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B72">
-        <v>22003.87</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B73">
-        <v>30411.66</v>
+        <v>22003.87</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B74">
-        <v>27184.21</v>
+        <v>30411.66</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75">
-        <v>19290.09</v>
+        <v>27184.21</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B76">
-        <v>13162.5</v>
+        <v>19290.09</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B77">
-        <v>11137.4</v>
+        <v>13162.5</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,18 +1715,35 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
+        <v>28</v>
+      </c>
+      <c r="B78">
+        <v>11137.4</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
         <v>31</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>41403.64</v>
       </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>11320.2</v>
+        <v>11872.2</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -647,7 +647,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>5596.6</v>
+        <v>5774.35</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -681,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>69364.86</v>
+        <v>70494.86</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -698,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>14028.54</v>
+        <v>15341.74</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -715,7 +715,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>13864.82</v>
+        <v>17254.32</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,44 +729,44 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>20463.44</v>
+        <v>21676.75</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>29720.49</v>
+        <v>504.45</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>19666.55</v>
+        <v>20463.44</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>21883.41</v>
+        <v>29720.49</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>45418.95</v>
+        <v>19666.55</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25">
-        <v>39575.07</v>
+        <v>21883.41</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26">
-        <v>15499.7</v>
+        <v>45418.95</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>10155.95</v>
+        <v>39575.07</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>34413.69</v>
+        <v>15499.7</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>28325.85</v>
+        <v>10155.95</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B30">
-        <v>12000.74</v>
+        <v>34413.69</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B31">
-        <v>17756.75</v>
+        <v>28325.85</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>23593.88</v>
+        <v>12000.74</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>9475.469999999999</v>
+        <v>17756.75</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>27766.95</v>
+        <v>23593.88</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>11639.15</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>28728.43</v>
+        <v>27766.95</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>15807.63</v>
+        <v>11639.15</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>24406.06</v>
+        <v>28728.43</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>30466.72</v>
+        <v>15807.63</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>23720.49</v>
+        <v>24406.06</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,44 +1086,44 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B41">
-        <v>31020.03</v>
+        <v>30466.72</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>48690.41</v>
+        <v>23720.49</v>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>35050.25</v>
+        <v>31020.03</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>7210.62</v>
+        <v>48690.41</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>10042.97</v>
+        <v>35050.25</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>7630.52</v>
+        <v>7210.62</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>19095.69</v>
+        <v>10042.97</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>16812.5</v>
+        <v>7630.52</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B49">
-        <v>6701.92</v>
+        <v>19095.69</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B50">
-        <v>38115.7</v>
+        <v>16812.5</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>12545.33</v>
+        <v>6701.92</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>14981.31</v>
+        <v>38115.7</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>14359.25</v>
+        <v>12545.33</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B54">
-        <v>18901.75</v>
+        <v>14981.31</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B55">
-        <v>22062.13</v>
+        <v>14359.25</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>17802.7</v>
+        <v>18901.75</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B57">
-        <v>6150.450000000001</v>
+        <v>22062.13</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B58">
-        <v>31344.88</v>
+        <v>17802.7</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B59">
-        <v>33546.1</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>32403.27</v>
+        <v>31344.88</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,44 +1426,44 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B61">
-        <v>21522.57</v>
+        <v>33546.1</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61">
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>37624.31</v>
+        <v>32403.27</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62">
         <v>2025</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>13035.05</v>
+        <v>21522.57</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B64">
-        <v>20789.35</v>
+        <v>37624.31</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>10330.44</v>
+        <v>13035.05</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>25429.94</v>
+        <v>20789.35</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>14198.2</v>
+        <v>10330.44</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B68">
-        <v>21391.35</v>
+        <v>25429.94</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B69">
-        <v>26250.86</v>
+        <v>14198.2</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>3373.67</v>
+        <v>21391.35</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>17408.6</v>
+        <v>26250.86</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B72">
-        <v>5005.650000000001</v>
+        <v>3373.67</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B73">
-        <v>22003.87</v>
+        <v>17408.6</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B74">
-        <v>30411.66</v>
+        <v>5005.650000000001</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B75">
-        <v>27184.21</v>
+        <v>22003.87</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B76">
-        <v>19290.09</v>
+        <v>30411.66</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B77">
-        <v>13162.5</v>
+        <v>27184.21</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B78">
-        <v>11137.4</v>
+        <v>19290.09</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -1732,18 +1732,52 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
+        <v>27</v>
+      </c>
+      <c r="B79">
+        <v>13162.5</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>28</v>
+      </c>
+      <c r="B80">
+        <v>11137.4</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80">
+        <v>2025</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
         <v>31</v>
       </c>
-      <c r="B79">
+      <c r="B81">
         <v>41403.64</v>
       </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>2025</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <v>2025</v>
+      </c>
+      <c r="E81" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -681,7 +681,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>70494.86</v>
+        <v>71087.16</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -732,7 +732,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>21676.75</v>
+        <v>24113.52</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -749,7 +749,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>504.45</v>
+        <v>6899.26</v>
       </c>
       <c r="C21">
         <v>6</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Período</t>
   </si>
   <si>
+    <t>07/2025</t>
+  </si>
+  <si>
     <t>06/2025</t>
   </si>
   <si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t>04/2025</t>
-  </si>
-  <si>
-    <t>03/2025</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,13 +423,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B2">
-        <v>45067.52</v>
+        <v>8693.200000000001</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -440,10 +440,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C3">
         <v>6</v>
@@ -452,15 +452,15 @@
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -469,15 +469,15 @@
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -486,15 +486,15 @@
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -503,15 +503,15 @@
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -520,15 +520,15 @@
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -537,15 +537,15 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -554,15 +554,15 @@
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -571,15 +571,15 @@
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -588,15 +588,15 @@
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>24877.27</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -605,15 +605,15 @@
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>14944.85</v>
+        <v>24913.77</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -622,15 +622,15 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>14248.93</v>
+        <v>14944.85</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -639,15 +639,15 @@
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>5774.35</v>
+        <v>14248.93</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -656,15 +656,15 @@
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -673,15 +673,15 @@
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>71087.16</v>
+        <v>119.13</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -690,15 +690,15 @@
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>15341.74</v>
+        <v>44131.86</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -707,15 +707,15 @@
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>17254.32</v>
+        <v>15341.74</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -724,15 +724,15 @@
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -741,15 +741,15 @@
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>6899.26</v>
+        <v>24113.52</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -758,18 +758,18 @@
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>20463.44</v>
+        <v>9113.01</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>2025</v>
@@ -780,13 +780,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>29720.49</v>
+        <v>81604.48</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>2025</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>19666.55</v>
+        <v>20463.44</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -809,15 +809,15 @@
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>21883.41</v>
+        <v>29720.49</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -826,15 +826,15 @@
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>45418.95</v>
+        <v>19666.55</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -843,15 +843,15 @@
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27">
-        <v>39575.07</v>
+        <v>21883.41</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -860,15 +860,15 @@
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>15499.7</v>
+        <v>45418.95</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -877,15 +877,15 @@
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>10155.95</v>
+        <v>39575.07</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -894,15 +894,15 @@
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>34413.69</v>
+        <v>15499.7</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -911,15 +911,15 @@
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>28325.85</v>
+        <v>10155.95</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -928,15 +928,15 @@
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32">
-        <v>12000.74</v>
+        <v>34413.69</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -945,15 +945,15 @@
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B33">
-        <v>17756.75</v>
+        <v>28325.85</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -962,15 +962,15 @@
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>23593.88</v>
+        <v>12000.74</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -979,15 +979,15 @@
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B35">
-        <v>9475.469999999999</v>
+        <v>17756.75</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -996,15 +996,15 @@
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>27766.95</v>
+        <v>23593.88</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1013,15 +1013,15 @@
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>11639.15</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1030,15 +1030,15 @@
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B38">
-        <v>28728.43</v>
+        <v>27766.95</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1047,15 +1047,15 @@
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>15807.63</v>
+        <v>11639.15</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1064,15 +1064,15 @@
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>24406.06</v>
+        <v>28728.43</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1081,15 +1081,15 @@
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>30466.72</v>
+        <v>15807.63</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1098,15 +1098,15 @@
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>23720.49</v>
+        <v>24406.06</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1115,18 +1115,18 @@
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>31020.03</v>
+        <v>30466.72</v>
       </c>
       <c r="C43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>2025</v>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>48690.41</v>
+        <v>23720.49</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>2025</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>35050.25</v>
+        <v>31020.03</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1166,15 +1166,15 @@
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>7210.62</v>
+        <v>48690.41</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1183,15 +1183,15 @@
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B47">
-        <v>10042.97</v>
+        <v>35050.25</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1200,15 +1200,15 @@
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B48">
-        <v>7630.52</v>
+        <v>7210.62</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1217,15 +1217,15 @@
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>19095.69</v>
+        <v>10042.97</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1234,15 +1234,15 @@
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>16812.5</v>
+        <v>7630.52</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1251,15 +1251,15 @@
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>6701.92</v>
+        <v>19095.69</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1268,15 +1268,15 @@
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B52">
-        <v>38115.7</v>
+        <v>16812.5</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1285,15 +1285,15 @@
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>12545.33</v>
+        <v>6701.92</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1302,15 +1302,15 @@
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>14981.31</v>
+        <v>38115.7</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1319,15 +1319,15 @@
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B55">
-        <v>14359.25</v>
+        <v>12545.33</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1336,15 +1336,15 @@
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B56">
-        <v>18901.75</v>
+        <v>14981.31</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1353,15 +1353,15 @@
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B57">
-        <v>22062.13</v>
+        <v>14359.25</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1370,15 +1370,15 @@
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>17802.7</v>
+        <v>18901.75</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1387,15 +1387,15 @@
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>6150.450000000001</v>
+        <v>22062.13</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1404,15 +1404,15 @@
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B60">
-        <v>31344.88</v>
+        <v>17802.7</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1421,15 +1421,15 @@
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>33546.1</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1438,15 +1438,15 @@
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>32403.27</v>
+        <v>31344.88</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1455,18 +1455,18 @@
         <v>2025</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>21522.57</v>
+        <v>33546.1</v>
       </c>
       <c r="C63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63">
         <v>2025</v>
@@ -1477,307 +1477,18 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B64">
-        <v>37624.31</v>
+        <v>32403.27</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64">
         <v>2025</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65">
-        <v>7</v>
-      </c>
-      <c r="B65">
-        <v>13035.05</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="D65">
-        <v>2025</v>
-      </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66">
-        <v>10</v>
-      </c>
-      <c r="B66">
-        <v>20789.35</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-      <c r="D66">
-        <v>2025</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
-        <v>11</v>
-      </c>
-      <c r="B67">
-        <v>10330.44</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
-        <v>12</v>
-      </c>
-      <c r="B68">
-        <v>25429.94</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-      <c r="D68">
-        <v>2025</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
-        <v>13</v>
-      </c>
-      <c r="B69">
-        <v>14198.2</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-      <c r="D69">
-        <v>2025</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>14</v>
-      </c>
-      <c r="B70">
-        <v>21391.35</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
-        <v>17</v>
-      </c>
-      <c r="B71">
-        <v>26250.86</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
-        <v>18</v>
-      </c>
-      <c r="B72">
-        <v>3373.67</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
-        <v>19</v>
-      </c>
-      <c r="B73">
-        <v>17408.6</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
-        <v>20</v>
-      </c>
-      <c r="B74">
-        <v>5005.650000000001</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-      <c r="D74">
-        <v>2025</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75">
-        <v>21</v>
-      </c>
-      <c r="B75">
-        <v>22003.87</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75">
-        <v>2025</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
-        <v>24</v>
-      </c>
-      <c r="B76">
-        <v>30411.66</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76">
-        <v>2025</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77">
-        <v>25</v>
-      </c>
-      <c r="B77">
-        <v>27184.21</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78">
-        <v>26</v>
-      </c>
-      <c r="B78">
-        <v>19290.09</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
-        <v>27</v>
-      </c>
-      <c r="B79">
-        <v>13162.5</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-      <c r="D79">
-        <v>2025</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
-        <v>28</v>
-      </c>
-      <c r="B80">
-        <v>11137.4</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80">
-        <v>2025</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>31</v>
-      </c>
-      <c r="B81">
-        <v>41403.64</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-      <c r="D81">
-        <v>2025</v>
-      </c>
-      <c r="E81" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +423,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>8693.200000000001</v>
+        <v>8952.83</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -440,27 +440,27 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B3">
-        <v>45067.52</v>
+        <v>8693.200000000001</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>14944.85</v>
+        <v>24913.77</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>44131.86</v>
+        <v>119.13</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>15341.74</v>
+        <v>46214.09</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>14231.97</v>
+        <v>15341.74</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>9113.01</v>
+        <v>24113.52</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>81604.48</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,27 +797,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>20463.44</v>
+        <v>104974.48</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B33">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B34">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B36">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,27 +1154,27 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B58">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B61">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B62">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,18 +1477,35 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>33546.1</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>2025</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
         <v>30</v>
       </c>
-      <c r="B64">
+      <c r="B65">
         <v>32403.27</v>
       </c>
-      <c r="C64">
-        <v>4</v>
-      </c>
-      <c r="D64">
-        <v>2025</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>2025</v>
+      </c>
+      <c r="E65" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8952.83</v>
+        <v>15517.98</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -440,10 +440,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>8693.200000000001</v>
+        <v>27866.61</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -732,7 +732,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>15341.74</v>
+        <v>15253.9</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -800,7 +800,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>104974.48</v>
+        <v>114289.79</v>
       </c>
       <c r="C24">
         <v>6</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15517.98</v>
+        <v>16314.73</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -443,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27866.61</v>
+        <v>28535.81</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -457,27 +457,27 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>45067.52</v>
+        <v>15955.29</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C5">
         <v>6</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>114289.79</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,27 +814,27 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2025</v>
       </c>
       <c r="E25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C26">
         <v>5</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B35">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B37">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B41">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B45">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,27 +1171,27 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B46">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>2025</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C47">
         <v>4</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B55">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B61">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B62">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B63">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,18 +1494,35 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
+        <v>29</v>
+      </c>
+      <c r="B65">
+        <v>33546.1</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65">
+        <v>2025</v>
+      </c>
+      <c r="E65" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
         <v>30</v>
       </c>
-      <c r="B65">
+      <c r="B66">
         <v>32403.27</v>
       </c>
-      <c r="C65">
-        <v>4</v>
-      </c>
-      <c r="D65">
-        <v>2025</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+      <c r="E66" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16314.73</v>
+        <v>16332.98</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -443,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>28535.81</v>
+        <v>27735.81</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -460,7 +460,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>15955.29</v>
+        <v>16620.34</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -474,27 +474,27 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>45067.52</v>
+        <v>13554.45</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,27 +831,27 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C27">
         <v>5</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B30">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B31">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B38">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B45">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,27 +1188,27 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B47">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B51">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B56">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B60">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B63">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B64">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,18 +1511,35 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <v>33546.1</v>
+      </c>
+      <c r="C66">
+        <v>4</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
         <v>30</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>32403.27</v>
       </c>
-      <c r="C66">
-        <v>4</v>
-      </c>
-      <c r="D66">
-        <v>2025</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>16332.98</v>
+        <v>17296.13</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>13554.45</v>
+        <v>26369.89</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -491,27 +491,27 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>45067.52</v>
+        <v>15800.46</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,27 +848,27 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B31">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B32">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B36">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B39">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B42">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,27 +1205,27 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B51">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B52">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B57">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B61">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B63">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B64">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B65">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,18 +1528,35 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
+        <v>29</v>
+      </c>
+      <c r="B67">
+        <v>33546.1</v>
+      </c>
+      <c r="C67">
+        <v>4</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
         <v>30</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>32403.27</v>
       </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17296.13</v>
+        <v>17972.28</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>15800.46</v>
+        <v>15070.96</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -508,27 +508,27 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>45067.52</v>
+        <v>19918.15</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C8">
         <v>6</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B17">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,27 +865,27 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>20463.44</v>
+        <v>111900.66</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B37">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B43">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B47">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B48">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,27 +1222,27 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C49">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B54">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B55">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B58">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B62">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B64">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B65">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B66">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,18 +1545,35 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
+        <v>29</v>
+      </c>
+      <c r="B68">
+        <v>33546.1</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
         <v>30</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>32403.27</v>
       </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-      <c r="D68">
-        <v>2025</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
+      </c>
+      <c r="E69" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17972.28</v>
+        <v>17999.03</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>15070.96</v>
+        <v>15315.31</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>19918.15</v>
+        <v>19905.55</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -525,27 +525,27 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>45067.52</v>
+        <v>15367.22</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C9">
         <v>6</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B28">
-        <v>111900.66</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,27 +882,27 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>20463.44</v>
+        <v>111900.66</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B30">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C30">
         <v>5</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B33">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B35">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B40">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B44">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B45">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B48">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B49">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,27 +1239,27 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B50">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B62">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B63">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B66">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B67">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,18 +1562,35 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
+        <v>29</v>
+      </c>
+      <c r="B69">
+        <v>33546.1</v>
+      </c>
+      <c r="C69">
+        <v>4</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
         <v>30</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>32403.27</v>
       </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="D69">
-        <v>2025</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
+      </c>
+      <c r="E70" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -542,27 +542,27 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>45067.52</v>
+        <v>12701.99</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>111900.66</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,27 +899,27 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>20463.44</v>
+        <v>109507.06</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C31">
         <v>5</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B34">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B35">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B40">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B43">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B44">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B45">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B49">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,27 +1256,27 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B54">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B55">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B60">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B63">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B64">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B65">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B66">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B68">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B69">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,18 +1579,35 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
+        <v>29</v>
+      </c>
+      <c r="B70">
+        <v>33546.1</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
         <v>30</v>
       </c>
-      <c r="B70">
+      <c r="B71">
         <v>32403.27</v>
       </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
+      </c>
+      <c r="E71" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>19905.55</v>
+        <v>20626.55</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -545,7 +545,7 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>12701.99</v>
+        <v>21120.89</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -559,27 +559,27 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>45067.52</v>
+        <v>13497.7</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>109507.06</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,27 +916,27 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>20463.44</v>
+        <v>109507.06</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C32">
         <v>5</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B38">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B41">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B46">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B50">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,27 +1273,27 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B55">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B56">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B57">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B58">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B61">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B62">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B63">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B64">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B65">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B69">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B70">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,18 +1596,35 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
+        <v>29</v>
+      </c>
+      <c r="B71">
+        <v>33546.1</v>
+      </c>
+      <c r="C71">
+        <v>4</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
         <v>30</v>
       </c>
-      <c r="B71">
+      <c r="B72">
         <v>32403.27</v>
       </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
+      </c>
+      <c r="E72" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17999.03</v>
+        <v>18005.48</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -562,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>13497.7</v>
+        <v>14116.1</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -576,27 +576,27 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>45067.52</v>
+        <v>17897.95</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>109507.06</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,27 +933,27 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>20463.44</v>
+        <v>109507.06</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D32">
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B33">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B38">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B42">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B43">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B48">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B52">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,27 +1290,27 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B53">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B58">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B59">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B65">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B66">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B69">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B70">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,18 +1613,35 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
+        <v>29</v>
+      </c>
+      <c r="B72">
+        <v>33546.1</v>
+      </c>
+      <c r="C72">
+        <v>4</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
         <v>30</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>32403.27</v>
       </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+      <c r="E73" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18005.48</v>
+        <v>18009.93</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>15315.31</v>
+        <v>18311.66</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>20626.55</v>
+        <v>26231.65</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -562,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>14116.1</v>
+        <v>14452.5</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -579,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>17897.95</v>
+        <v>17848.45</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,27 +593,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>45067.52</v>
+        <v>47699.1</v>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B32">
-        <v>109507.06</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,27 +950,27 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>20463.44</v>
+        <v>109507.06</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D33">
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B43">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B46">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B48">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B53">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,27 +1307,27 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B54">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B63">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B67">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B69">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B71">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,18 +1630,35 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
+        <v>29</v>
+      </c>
+      <c r="B73">
+        <v>33546.1</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
         <v>30</v>
       </c>
-      <c r="B73">
+      <c r="B74">
         <v>32403.27</v>
       </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>2025</v>
+      </c>
+      <c r="E74" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18009.93</v>
+        <v>18036.68</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>47699.1</v>
+        <v>47778.6</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,27 +610,27 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>45067.52</v>
+        <v>15570.15</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B27">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B33">
-        <v>109507.06</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,27 +967,27 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>20463.44</v>
+        <v>109507.06</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D34">
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B49">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B52">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B53">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,27 +1324,27 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B55">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C55">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B59">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B63">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B68">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B69">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B71">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B72">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,18 +1647,35 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
+        <v>29</v>
+      </c>
+      <c r="B74">
+        <v>33546.1</v>
+      </c>
+      <c r="C74">
+        <v>4</v>
+      </c>
+      <c r="D74">
+        <v>2025</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
         <v>30</v>
       </c>
-      <c r="B74">
+      <c r="B75">
         <v>32403.27</v>
       </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>2025</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
+      </c>
+      <c r="E75" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18036.68</v>
+        <v>18041.08</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>47778.6</v>
+        <v>48059.45</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>15570.15</v>
+        <v>16959.9</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,27 +627,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>45067.52</v>
+        <v>12257.2</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B34">
-        <v>109507.06</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,27 +984,27 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>20463.44</v>
+        <v>109507.06</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C36">
         <v>5</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B49">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B52">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,27 +1341,27 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B56">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B64">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B69">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B71">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B72">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B73">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,18 +1664,35 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
+        <v>29</v>
+      </c>
+      <c r="B75">
+        <v>33546.1</v>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
         <v>30</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>32403.27</v>
       </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75">
-        <v>2025</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>18311.66</v>
+        <v>23153.41</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>26231.65</v>
+        <v>23838.05</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -562,7 +562,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>14452.5</v>
+        <v>14249.1</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>16959.9</v>
+        <v>14566.3</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -644,44 +644,44 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>45067.52</v>
+        <v>2658.95</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>35136.72</v>
+        <v>1883.1</v>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>11872.2</v>
+        <v>45067.52</v>
       </c>
       <c r="C17">
         <v>6</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B18">
-        <v>12749.74</v>
+        <v>35136.72</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>12978.82</v>
+        <v>11872.2</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>11059.45</v>
+        <v>12749.74</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>4973.1</v>
+        <v>12978.82</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>19810.51</v>
+        <v>11059.45</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>17504.38</v>
+        <v>4973.1</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>9230.379999999999</v>
+        <v>19810.51</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>24913.77</v>
+        <v>17504.38</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>14906.35</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B27">
-        <v>14248.93</v>
+        <v>24913.77</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B28">
-        <v>5940.05</v>
+        <v>14906.35</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B29">
-        <v>119.13</v>
+        <v>14248.93</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30">
-        <v>46214.09</v>
+        <v>5940.05</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>15253.9</v>
+        <v>119.13</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B32">
-        <v>14231.97</v>
+        <v>46214.09</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B33">
-        <v>24113.52</v>
+        <v>15253.9</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B34">
-        <v>9530.559999999999</v>
+        <v>14231.97</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B35">
-        <v>109507.06</v>
+        <v>24113.52</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,44 +1001,44 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B36">
-        <v>20463.44</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D36">
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B37">
-        <v>29720.49</v>
+        <v>114294.26</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>19666.55</v>
+        <v>20463.44</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>21883.41</v>
+        <v>29720.49</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>45418.95</v>
+        <v>19666.55</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B41">
-        <v>39575.07</v>
+        <v>21883.41</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B42">
-        <v>15499.7</v>
+        <v>45418.95</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>10155.95</v>
+        <v>39575.07</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>34413.69</v>
+        <v>15499.7</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>28325.85</v>
+        <v>10155.95</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B46">
-        <v>12000.74</v>
+        <v>34413.69</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B47">
-        <v>17756.75</v>
+        <v>28325.85</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>23593.88</v>
+        <v>12000.74</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B49">
-        <v>9475.469999999999</v>
+        <v>17756.75</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>27766.95</v>
+        <v>23593.88</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>11639.15</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B52">
-        <v>28728.43</v>
+        <v>27766.95</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>15807.63</v>
+        <v>11639.15</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B54">
-        <v>24406.06</v>
+        <v>28728.43</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>30466.72</v>
+        <v>15807.63</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <v>23720.49</v>
+        <v>24406.06</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,44 +1358,44 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B57">
-        <v>31020.03</v>
+        <v>30466.72</v>
       </c>
       <c r="C57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>48690.41</v>
+        <v>23720.49</v>
       </c>
       <c r="C58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B59">
-        <v>35050.25</v>
+        <v>31020.03</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B60">
-        <v>7210.62</v>
+        <v>48690.41</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B61">
-        <v>10042.97</v>
+        <v>35050.25</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>7630.52</v>
+        <v>7210.62</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B63">
-        <v>19095.69</v>
+        <v>10042.97</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B64">
-        <v>16812.5</v>
+        <v>7630.52</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B65">
-        <v>6701.92</v>
+        <v>19095.69</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B66">
-        <v>38115.7</v>
+        <v>16812.5</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B67">
-        <v>12545.33</v>
+        <v>6701.92</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B68">
-        <v>14981.31</v>
+        <v>38115.7</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B69">
-        <v>14359.25</v>
+        <v>12545.33</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B70">
-        <v>18901.75</v>
+        <v>14981.31</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B71">
-        <v>22062.13</v>
+        <v>14359.25</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B72">
-        <v>17802.7</v>
+        <v>18901.75</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B73">
-        <v>6150.450000000001</v>
+        <v>22062.13</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B74">
-        <v>31344.88</v>
+        <v>17802.7</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B75">
-        <v>33546.1</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,18 +1681,52 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
+        <v>28</v>
+      </c>
+      <c r="B76">
+        <v>31344.88</v>
+      </c>
+      <c r="C76">
+        <v>4</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>29</v>
+      </c>
+      <c r="B77">
+        <v>33546.1</v>
+      </c>
+      <c r="C77">
+        <v>4</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
         <v>30</v>
       </c>
-      <c r="B76">
+      <c r="B78">
         <v>32403.27</v>
       </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-      <c r="D76">
-        <v>2025</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18041.08</v>
+        <v>18045.28</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>23153.41</v>
+        <v>24032.91</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>23838.05</v>
+        <v>27515.9</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -613,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>14566.3</v>
+        <v>15067.65</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -647,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>2658.95</v>
+        <v>2663.05</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>1883.1</v>
+        <v>10624.8</v>
       </c>
       <c r="C16">
         <v>7</v>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>10624.8</v>
+        <v>12417.3</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,27 +678,27 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B17">
-        <v>45067.52</v>
+        <v>7698.86</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C18">
         <v>6</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B22">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B37">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,27 +1035,27 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B39">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B42">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B43">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B44">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B49">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B54">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B57">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B58">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,27 +1392,27 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B59">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B62">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B63">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B68">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B71">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B72">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B74">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B75">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B76">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,18 +1715,35 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
+        <v>29</v>
+      </c>
+      <c r="B78">
+        <v>33546.1</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
         <v>30</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>32403.27</v>
       </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18045.28</v>
+        <v>18050.18</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>24032.91</v>
+        <v>24062.21</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -647,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>2663.05</v>
+        <v>2474.05</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -681,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>7698.86</v>
+        <v>8172.16</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,27 +695,27 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B18">
-        <v>45067.52</v>
+        <v>11311.63</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C19">
         <v>6</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B23">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B37">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B38">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,27 +1052,27 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B39">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C39">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B51">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B53">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B54">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B55">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B58">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B59">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,27 +1409,27 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B66">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B67">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B69">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B70">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B71">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B72">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B73">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B74">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B76">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B77">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B78">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,18 +1732,35 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <v>33546.1</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
         <v>30</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>32403.27</v>
       </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79">
-        <v>2025</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>2025</v>
+      </c>
+      <c r="E80" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18050.18</v>
+        <v>18058.83</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>24062.21</v>
+        <v>24159.71</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -681,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>8172.16</v>
+        <v>9021.559999999999</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -698,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>11311.63</v>
+        <v>12244.93</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,27 +712,27 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>45067.52</v>
+        <v>3931.75</v>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C20">
         <v>6</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B24">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>9230.379999999999</v>
+        <v>17504.38</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B39">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,27 +1069,27 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D40">
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B41">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B43">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B46">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B47">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B48">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B49">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B51">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B54">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B55">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B56">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B57">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B58">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B60">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,27 +1426,27 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B61">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B67">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B74">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B75">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B77">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B78">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B79">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,18 +1749,35 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
+        <v>29</v>
+      </c>
+      <c r="B80">
+        <v>33546.1</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80">
+        <v>2025</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
         <v>30</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>32403.27</v>
       </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-      <c r="D80">
-        <v>2025</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>2025</v>
+      </c>
+      <c r="E81" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18058.83</v>
+        <v>18093.98</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -647,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>2474.05</v>
+        <v>4374.5</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -681,7 +681,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>9021.559999999999</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -698,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>12244.93</v>
+        <v>12454.83</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -715,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>3931.75</v>
+        <v>4369</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,27 +729,27 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>45067.52</v>
+        <v>10636.32</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C21">
         <v>6</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B25">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28">
-        <v>17504.38</v>
+        <v>19810.51</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B33">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B37">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B38">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B39">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B40">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,27 +1086,27 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B41">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B42">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B46">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B53">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B57">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B59">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B60">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,27 +1443,27 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B62">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62">
         <v>2025</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B68">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B69">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B71">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B72">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B73">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B74">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B75">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B76">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B78">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B79">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B80">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,18 +1766,35 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
+        <v>29</v>
+      </c>
+      <c r="B81">
+        <v>33546.1</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81">
+        <v>2025</v>
+      </c>
+      <c r="E81" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82">
         <v>30</v>
       </c>
-      <c r="B81">
+      <c r="B82">
         <v>32403.27</v>
       </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>2025</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>2025</v>
+      </c>
+      <c r="E82" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>4374.5</v>
+        <v>7189.849999999999</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -715,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>4369</v>
+        <v>4856.5</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -732,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>10636.32</v>
+        <v>10685.82</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,27 +746,27 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>45067.52</v>
+        <v>7408.82</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C22">
         <v>6</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,27 +1103,27 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B42">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C42">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B48">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B49">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B50">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B52">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B53">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B56">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B57">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B58">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B59">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B60">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B61">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,27 +1460,27 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B63">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63">
         <v>2025</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B67">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B70">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B71">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B73">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B74">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B75">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B76">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B77">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B80">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B81">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,18 +1783,35 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
+        <v>29</v>
+      </c>
+      <c r="B82">
+        <v>33546.1</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82">
+        <v>2025</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83">
         <v>30</v>
       </c>
-      <c r="B82">
+      <c r="B83">
         <v>32403.27</v>
       </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82">
-        <v>2025</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>2025</v>
+      </c>
+      <c r="E83" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +664,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>12417.3</v>
+        <v>497733.52</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -715,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>4856.5</v>
+        <v>5000.2</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -732,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>10685.82</v>
+        <v>7210.32</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -749,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>7408.82</v>
+        <v>9500.17</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,27 +763,27 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>45067.52</v>
+        <v>23549.84</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C23">
         <v>6</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B25">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B32">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B34">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B35">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B41">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B42">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,27 +1120,27 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B43">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D43">
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B49">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B52">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B53">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B54">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B60">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B61">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B62">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,27 +1477,27 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B64">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64">
         <v>2025</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B66">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B67">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B68">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B70">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B71">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B72">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B73">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B77">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B81">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B82">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,18 +1800,35 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
+        <v>29</v>
+      </c>
+      <c r="B83">
+        <v>33546.1</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>2025</v>
+      </c>
+      <c r="E83" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84">
         <v>30</v>
       </c>
-      <c r="B83">
+      <c r="B84">
         <v>32403.27</v>
       </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83">
-        <v>2025</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>2025</v>
+      </c>
+      <c r="E84" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>26369.89</v>
+        <v>27892.39</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -749,7 +749,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>9500.17</v>
+        <v>12811.82</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -766,7 +766,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>23549.84</v>
+        <v>24722.29</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,27 +780,27 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>45067.52</v>
+        <v>35906.71</v>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C24">
         <v>6</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B36">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B38">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B43">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,27 +1137,27 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D44">
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B45">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B49">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B50">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B54">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B55">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B56">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B59">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B60">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B61">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B62">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B63">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B64">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,27 +1494,27 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B65">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65">
         <v>2025</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66">
-        <v>48690.41</v>
+        <v>31020.03</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67">
-        <v>35050.25</v>
+        <v>48690.41</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
-        <v>7210.62</v>
+        <v>35050.25</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>10042.97</v>
+        <v>7210.62</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70">
-        <v>7630.52</v>
+        <v>10042.97</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71">
-        <v>19095.69</v>
+        <v>7630.52</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72">
-        <v>16812.5</v>
+        <v>19095.69</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>6701.92</v>
+        <v>16812.5</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B74">
-        <v>38115.7</v>
+        <v>6701.92</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B75">
-        <v>12545.33</v>
+        <v>38115.7</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B76">
-        <v>14981.31</v>
+        <v>12545.33</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B77">
-        <v>14359.25</v>
+        <v>14981.31</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B78">
-        <v>18901.75</v>
+        <v>14359.25</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -1732,10 +1732,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79">
-        <v>22062.13</v>
+        <v>18901.75</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -1749,10 +1749,10 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80">
-        <v>17802.7</v>
+        <v>22062.13</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -1766,10 +1766,10 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81">
-        <v>6150.450000000001</v>
+        <v>17802.7</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -1783,10 +1783,10 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B82">
-        <v>31344.88</v>
+        <v>6150.450000000001</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -1800,10 +1800,10 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B83">
-        <v>33546.1</v>
+        <v>31344.88</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -1817,18 +1817,35 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
+        <v>29</v>
+      </c>
+      <c r="B84">
+        <v>33546.1</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84">
+        <v>2025</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85">
         <v>30</v>
       </c>
-      <c r="B84">
+      <c r="B85">
         <v>32403.27</v>
       </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="D84">
-        <v>2025</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85">
+        <v>2025</v>
+      </c>
+      <c r="E85" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="8">
   <si>
     <t>Dia</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>05/2025</t>
-  </si>
-  <si>
-    <t>04/2025</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,7 +491,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>24159.71</v>
+        <v>24163.66</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -630,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>12257.2</v>
+        <v>12214.2</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -647,7 +644,7 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>7189.849999999999</v>
+        <v>7189.85</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -749,7 +746,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>12811.82</v>
+        <v>16418.74</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -766,7 +763,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>24722.29</v>
+        <v>25043.04</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -783,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>35906.71</v>
+        <v>56663.15</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,27 +794,27 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>45067.52</v>
+        <v>10799.55</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -831,10 +828,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -848,10 +845,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +862,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +879,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +896,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +913,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +930,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +947,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +964,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B34">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +981,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +998,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1015,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1032,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1049,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1066,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1083,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1100,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B42">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1117,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1134,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B44">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,27 +1151,27 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B45">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -1188,10 +1185,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1205,10 +1202,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1219,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1236,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B50">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1253,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B51">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1270,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B52">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1287,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B53">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1304,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1321,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B55">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1338,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B56">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1355,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B57">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1372,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1389,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1406,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B60">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1423,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B61">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1440,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1457,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1474,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B64">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1491,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65">
-        <v>23720.49</v>
+        <v>30466.72</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,342 +1508,19 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B66">
-        <v>31020.03</v>
+        <v>23720.49</v>
       </c>
       <c r="C66">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66">
         <v>2025</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67">
-        <v>2</v>
-      </c>
-      <c r="B67">
-        <v>48690.41</v>
-      </c>
-      <c r="C67">
-        <v>4</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
-      </c>
-      <c r="E67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68">
-        <v>3</v>
-      </c>
-      <c r="B68">
-        <v>35050.25</v>
-      </c>
-      <c r="C68">
-        <v>4</v>
-      </c>
-      <c r="D68">
-        <v>2025</v>
-      </c>
-      <c r="E68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69">
-        <v>4</v>
-      </c>
-      <c r="B69">
-        <v>7210.62</v>
-      </c>
-      <c r="C69">
-        <v>4</v>
-      </c>
-      <c r="D69">
-        <v>2025</v>
-      </c>
-      <c r="E69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70">
-        <v>7</v>
-      </c>
-      <c r="B70">
-        <v>10042.97</v>
-      </c>
-      <c r="C70">
-        <v>4</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
-      </c>
-      <c r="E70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71">
-        <v>8</v>
-      </c>
-      <c r="B71">
-        <v>7630.52</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71">
-        <v>2025</v>
-      </c>
-      <c r="E71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72">
-        <v>9</v>
-      </c>
-      <c r="B72">
-        <v>19095.69</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73">
-        <v>10</v>
-      </c>
-      <c r="B73">
-        <v>16812.5</v>
-      </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
-      </c>
-      <c r="E73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74">
-        <v>11</v>
-      </c>
-      <c r="B74">
-        <v>6701.92</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-      <c r="D74">
-        <v>2025</v>
-      </c>
-      <c r="E74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75">
-        <v>14</v>
-      </c>
-      <c r="B75">
-        <v>38115.7</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-      <c r="D75">
-        <v>2025</v>
-      </c>
-      <c r="E75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76">
-        <v>15</v>
-      </c>
-      <c r="B76">
-        <v>12545.33</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-      <c r="D76">
-        <v>2025</v>
-      </c>
-      <c r="E76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77">
-        <v>16</v>
-      </c>
-      <c r="B77">
-        <v>14981.31</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
-      </c>
-      <c r="E77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78">
-        <v>17</v>
-      </c>
-      <c r="B78">
-        <v>14359.25</v>
-      </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79">
-        <v>22</v>
-      </c>
-      <c r="B79">
-        <v>18901.75</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-      <c r="D79">
-        <v>2025</v>
-      </c>
-      <c r="E79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80">
-        <v>23</v>
-      </c>
-      <c r="B80">
-        <v>22062.13</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-      <c r="D80">
-        <v>2025</v>
-      </c>
-      <c r="E80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81">
-        <v>24</v>
-      </c>
-      <c r="B81">
-        <v>17802.7</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-      <c r="D81">
-        <v>2025</v>
-      </c>
-      <c r="E81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82">
-        <v>25</v>
-      </c>
-      <c r="B82">
-        <v>6150.450000000001</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-      <c r="D82">
-        <v>2025</v>
-      </c>
-      <c r="E82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83">
-        <v>28</v>
-      </c>
-      <c r="B83">
-        <v>31344.88</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-      <c r="D83">
-        <v>2025</v>
-      </c>
-      <c r="E83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
-      <c r="A84">
-        <v>29</v>
-      </c>
-      <c r="B84">
-        <v>33546.1</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-      <c r="D84">
-        <v>2025</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85">
-        <v>30</v>
-      </c>
-      <c r="B85">
-        <v>32403.27</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-      <c r="D85">
-        <v>2025</v>
-      </c>
-      <c r="E85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>Período</t>
+  </si>
+  <si>
+    <t>08/2025</t>
   </si>
   <si>
     <t>07/2025</t>
@@ -395,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -423,10 +426,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>18093.98</v>
+        <v>23013.08</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>2025</v>
@@ -437,10 +440,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>27735.81</v>
+        <v>18112.93</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -449,15 +452,15 @@
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>16620.34</v>
+        <v>27735.81</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -466,15 +469,15 @@
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>27892.39</v>
+        <v>16620.34</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -483,15 +486,15 @@
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>24163.66</v>
+        <v>27892.39</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -500,15 +503,15 @@
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>27515.9</v>
+        <v>24163.66</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -517,15 +520,15 @@
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>15367.22</v>
+        <v>27515.9</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -534,15 +537,15 @@
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>21120.89</v>
+        <v>15367.22</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -551,15 +554,15 @@
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>14249.1</v>
+        <v>21120.89</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -568,15 +571,15 @@
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>17848.45</v>
+        <v>14249.1</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -585,15 +588,15 @@
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>48059.45</v>
+        <v>18544.3</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -602,15 +605,15 @@
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>15067.65</v>
+        <v>48059.45</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -619,15 +622,15 @@
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>12214.2</v>
+        <v>15067.65</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -636,15 +639,15 @@
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>7189.85</v>
+        <v>12214.2</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -653,15 +656,15 @@
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>497733.52</v>
+        <v>7505.85</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -670,15 +673,15 @@
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>9220.860000000001</v>
+        <v>499270.27</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -687,15 +690,15 @@
         <v>2025</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>12454.83</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -704,15 +707,15 @@
         <v>2025</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>5000.2</v>
+        <v>12454.83</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -721,15 +724,15 @@
         <v>2025</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>7210.32</v>
+        <v>5000.2</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -738,15 +741,15 @@
         <v>2025</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>16418.74</v>
+        <v>7210.32</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -755,15 +758,15 @@
         <v>2025</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>25043.04</v>
+        <v>18613.59</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -772,15 +775,15 @@
         <v>2025</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>56663.15</v>
+        <v>25043.04</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -789,15 +792,15 @@
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>10799.55</v>
+        <v>59573.83</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -806,18 +809,18 @@
         <v>2025</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>45067.52</v>
+        <v>25281</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>2025</v>
@@ -828,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -840,15 +843,15 @@
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -857,15 +860,15 @@
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B28">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -874,15 +877,15 @@
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -891,15 +894,15 @@
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -908,15 +911,15 @@
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -925,15 +928,15 @@
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -942,15 +945,15 @@
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -959,15 +962,15 @@
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -976,15 +979,15 @@
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -993,15 +996,15 @@
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1010,15 +1013,15 @@
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B37">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1027,15 +1030,15 @@
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B38">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1044,15 +1047,15 @@
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B39">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1061,15 +1064,15 @@
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B40">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1078,15 +1081,15 @@
         <v>2025</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B41">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1095,15 +1098,15 @@
         <v>2025</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1112,15 +1115,15 @@
         <v>2025</v>
       </c>
       <c r="E42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1129,15 +1132,15 @@
         <v>2025</v>
       </c>
       <c r="E43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1146,15 +1149,15 @@
         <v>2025</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B45">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1163,18 +1166,18 @@
         <v>2025</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B46">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>2025</v>
@@ -1185,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B47">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -1197,15 +1200,15 @@
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1214,15 +1217,15 @@
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B49">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1231,15 +1234,15 @@
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B50">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1248,15 +1251,15 @@
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B51">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1265,15 +1268,15 @@
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B52">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1282,15 +1285,15 @@
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B53">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1299,15 +1302,15 @@
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B54">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1316,15 +1319,15 @@
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B55">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1333,15 +1336,15 @@
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B56">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1350,15 +1353,15 @@
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B57">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1367,15 +1370,15 @@
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1384,15 +1387,15 @@
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1401,15 +1404,15 @@
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1418,15 +1421,15 @@
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B61">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1435,15 +1438,15 @@
         <v>2025</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B62">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1452,15 +1455,15 @@
         <v>2025</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1469,15 +1472,15 @@
         <v>2025</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1486,15 +1489,15 @@
         <v>2025</v>
       </c>
       <c r="E64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1503,24 +1506,41 @@
         <v>2025</v>
       </c>
       <c r="E65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
+        <v>29</v>
+      </c>
+      <c r="B66">
+        <v>30466.72</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="D66">
+        <v>2025</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
         <v>30</v>
       </c>
-      <c r="B66">
+      <c r="B67">
         <v>23720.49</v>
       </c>
-      <c r="C66">
-        <v>5</v>
-      </c>
-      <c r="D66">
-        <v>2025</v>
-      </c>
-      <c r="E66" t="s">
-        <v>7</v>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23013.08</v>
+        <v>23811.99</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -440,27 +440,27 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3">
-        <v>18112.93</v>
+        <v>30340.86</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
         <v>2025</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>27735.81</v>
+        <v>18112.93</v>
       </c>
       <c r="C4">
         <v>7</v>
@@ -474,10 +474,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>16620.34</v>
+        <v>27735.81</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>27892.39</v>
+        <v>16620.34</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>24163.66</v>
+        <v>27892.39</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>27515.9</v>
+        <v>24182.46</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>15367.22</v>
+        <v>27515.9</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>21120.89</v>
+        <v>15367.22</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>14249.1</v>
+        <v>21120.89</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>18544.3</v>
+        <v>14249.1</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>48059.45</v>
+        <v>18544.3</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>15067.65</v>
+        <v>48059.45</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>12214.2</v>
+        <v>15067.65</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>7505.85</v>
+        <v>12214.2</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B17">
-        <v>499270.27</v>
+        <v>7505.85</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>9220.860000000001</v>
+        <v>499270.27</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>12454.83</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>5000.2</v>
+        <v>12454.83</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>7210.32</v>
+        <v>5000.2</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>18613.59</v>
+        <v>7210.32</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>25043.04</v>
+        <v>20062.57</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>59573.83</v>
+        <v>25018.04</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>25281</v>
+        <v>59573.83</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,27 +831,27 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>45067.52</v>
+        <v>27720.5</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>2025</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C27">
         <v>6</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B31">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B36">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B39">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B40">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B42">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B44">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B46">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,27 +1188,27 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B47">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B48">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B53">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B54">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B55">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B56">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B57">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B58">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B59">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B63">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B66">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,18 +1528,35 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
+        <v>29</v>
+      </c>
+      <c r="B67">
+        <v>30466.72</v>
+      </c>
+      <c r="C67">
+        <v>5</v>
+      </c>
+      <c r="D67">
+        <v>2025</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
         <v>30</v>
       </c>
-      <c r="B67">
+      <c r="B68">
         <v>23720.49</v>
       </c>
-      <c r="C67">
-        <v>5</v>
-      </c>
-      <c r="D67">
-        <v>2025</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>30340.86</v>
+        <v>30361.96</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -457,27 +457,27 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>18112.93</v>
+        <v>14404.74</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4">
         <v>2025</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>27735.81</v>
+        <v>18112.93</v>
       </c>
       <c r="C5">
         <v>7</v>
@@ -491,10 +491,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>16620.34</v>
+        <v>27735.81</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>27892.39</v>
+        <v>16620.34</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>24182.46</v>
+        <v>27892.39</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>27515.9</v>
+        <v>24182.46</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>15367.22</v>
+        <v>27515.9</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>21120.89</v>
+        <v>15367.22</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>14249.1</v>
+        <v>21120.89</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>18544.3</v>
+        <v>14249.1</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>48059.45</v>
+        <v>18544.3</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>15067.65</v>
+        <v>48059.45</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>12214.2</v>
+        <v>15067.65</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>7505.85</v>
+        <v>12214.2</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>499270.27</v>
+        <v>7505.85</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>9220.860000000001</v>
+        <v>499270.27</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>12454.83</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>5000.2</v>
+        <v>12454.83</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>7210.32</v>
+        <v>5000.2</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>20062.57</v>
+        <v>7210.32</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>25018.04</v>
+        <v>20062.57</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>59573.83</v>
+        <v>25018.04</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>27720.5</v>
+        <v>59573.83</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,27 +848,27 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>45067.52</v>
+        <v>27720.5</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>2025</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B32">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B33">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B37">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B38">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B39">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B40">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B42">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B46">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B47">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,27 +1205,27 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B48">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B49">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B51">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B52">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B53">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B54">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B55">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B56">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B57">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B58">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B59">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B60">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B61">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B63">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B64">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B65">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B66">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B67">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,18 +1545,35 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
+        <v>29</v>
+      </c>
+      <c r="B68">
+        <v>30466.72</v>
+      </c>
+      <c r="C68">
+        <v>5</v>
+      </c>
+      <c r="D68">
+        <v>2025</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
         <v>30</v>
       </c>
-      <c r="B68">
+      <c r="B69">
         <v>23720.49</v>
       </c>
-      <c r="C68">
-        <v>5</v>
-      </c>
-      <c r="D68">
-        <v>2025</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
+      </c>
+      <c r="E69" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23811.99</v>
+        <v>23923.99</v>
       </c>
       <c r="C2">
         <v>8</v>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>30361.96</v>
+        <v>30379.91</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>14404.74</v>
+        <v>15076.49</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -474,27 +474,27 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>18112.93</v>
+        <v>16426.77</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5">
         <v>2025</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>27735.81</v>
+        <v>18112.93</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>16620.34</v>
+        <v>27735.81</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -525,10 +525,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>27892.39</v>
+        <v>16620.34</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>24182.46</v>
+        <v>27892.39</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>27515.9</v>
+        <v>24182.46</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>15367.22</v>
+        <v>27515.9</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
-        <v>21120.89</v>
+        <v>15367.22</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
-        <v>14249.1</v>
+        <v>21120.89</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>18544.3</v>
+        <v>14249.1</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>48059.45</v>
+        <v>18544.3</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>15067.65</v>
+        <v>48059.45</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>12214.2</v>
+        <v>15067.65</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>7505.85</v>
+        <v>12214.2</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>499270.27</v>
+        <v>7505.85</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>9220.860000000001</v>
+        <v>499270.27</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>12454.83</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>5000.2</v>
+        <v>12454.83</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>7210.32</v>
+        <v>5000.2</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>20062.57</v>
+        <v>7210.32</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>25018.04</v>
+        <v>20062.57</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>59573.83</v>
+        <v>25018.04</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>27720.5</v>
+        <v>59573.83</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,27 +865,27 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>45067.52</v>
+        <v>27720.5</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>2025</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C29">
         <v>6</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B31">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B33">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B34">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B36">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B39">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B41">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B42">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B43">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B46">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B47">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,27 +1222,27 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B49">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B50">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B52">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B53">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B60">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B61">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B62">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B64">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B65">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B66">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B67">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B68">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,18 +1562,35 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
+        <v>29</v>
+      </c>
+      <c r="B69">
+        <v>30466.72</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69">
+        <v>2025</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
         <v>30</v>
       </c>
-      <c r="B69">
+      <c r="B70">
         <v>23720.49</v>
       </c>
-      <c r="C69">
-        <v>5</v>
-      </c>
-      <c r="D69">
-        <v>2025</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
+      </c>
+      <c r="E70" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>30379.91</v>
+        <v>30338.81</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>15076.49</v>
+        <v>16137.39</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>16426.77</v>
+        <v>19849.77</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -491,44 +491,44 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>18112.93</v>
+        <v>22763.35</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
         <v>2025</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>27735.81</v>
+        <v>13507.96</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>2025</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>16620.34</v>
+        <v>18112.93</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -542,10 +542,10 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>27892.39</v>
+        <v>27735.81</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>24182.46</v>
+        <v>16620.34</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>27515.9</v>
+        <v>27892.39</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>15367.22</v>
+        <v>24182.46</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>21120.89</v>
+        <v>27515.9</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>14249.1</v>
+        <v>15367.22</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>18544.3</v>
+        <v>21120.89</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>48059.45</v>
+        <v>14249.1</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
-        <v>15067.65</v>
+        <v>18544.3</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>12214.2</v>
+        <v>48059.45</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>7505.85</v>
+        <v>15067.65</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>499270.27</v>
+        <v>12214.2</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B21">
-        <v>9220.860000000001</v>
+        <v>7505.85</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>12454.83</v>
+        <v>499270.27</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
-        <v>5000.2</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>7210.32</v>
+        <v>12454.83</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25">
-        <v>20062.57</v>
+        <v>5000.2</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26">
-        <v>25018.04</v>
+        <v>7210.32</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
-        <v>59573.83</v>
+        <v>20062.57</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>27720.5</v>
+        <v>25018.04</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,44 +882,44 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>45067.52</v>
+        <v>59573.83</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>2025</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>35136.72</v>
+        <v>27720.5</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30">
         <v>2025</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>11872.2</v>
+        <v>45067.52</v>
       </c>
       <c r="C31">
         <v>6</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>12749.74</v>
+        <v>35136.72</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B33">
-        <v>12978.82</v>
+        <v>11872.2</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B34">
-        <v>11059.45</v>
+        <v>12749.74</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B35">
-        <v>4973.1</v>
+        <v>12978.82</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>19810.51</v>
+        <v>11059.45</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>18059.33</v>
+        <v>4973.1</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38">
-        <v>9230.379999999999</v>
+        <v>19810.51</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B39">
-        <v>24913.77</v>
+        <v>18059.33</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B40">
-        <v>14906.35</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B41">
-        <v>14248.93</v>
+        <v>24913.77</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B42">
-        <v>5940.05</v>
+        <v>14906.35</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B43">
-        <v>119.13</v>
+        <v>14248.93</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B44">
-        <v>46214.09</v>
+        <v>5940.05</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B45">
-        <v>15253.9</v>
+        <v>119.13</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B46">
-        <v>14231.97</v>
+        <v>46214.09</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B47">
-        <v>24113.52</v>
+        <v>15253.9</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B48">
-        <v>9530.559999999999</v>
+        <v>14231.97</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B49">
-        <v>114294.26</v>
+        <v>24113.52</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,44 +1239,44 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B50">
-        <v>20463.44</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C50">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B51">
-        <v>29720.49</v>
+        <v>114294.26</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D51">
         <v>2025</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52">
-        <v>19666.55</v>
+        <v>20463.44</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B53">
-        <v>21883.41</v>
+        <v>29720.49</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54">
-        <v>45418.95</v>
+        <v>19666.55</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B55">
-        <v>39575.07</v>
+        <v>21883.41</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <v>15499.7</v>
+        <v>45418.95</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>10155.95</v>
+        <v>39575.07</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B58">
-        <v>34413.69</v>
+        <v>15499.7</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>28325.85</v>
+        <v>10155.95</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B60">
-        <v>12000.74</v>
+        <v>34413.69</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B61">
-        <v>17756.75</v>
+        <v>28325.85</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B62">
-        <v>23593.88</v>
+        <v>12000.74</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B63">
-        <v>9475.469999999999</v>
+        <v>17756.75</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B64">
-        <v>27766.95</v>
+        <v>23593.88</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B65">
-        <v>11639.15</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B66">
-        <v>28728.43</v>
+        <v>27766.95</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B67">
-        <v>15807.63</v>
+        <v>11639.15</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B68">
-        <v>24406.06</v>
+        <v>28728.43</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B69">
-        <v>30466.72</v>
+        <v>15807.63</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,18 +1579,52 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
+        <v>28</v>
+      </c>
+      <c r="B70">
+        <v>24406.06</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>2025</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>29</v>
+      </c>
+      <c r="B71">
+        <v>30466.72</v>
+      </c>
+      <c r="C71">
+        <v>5</v>
+      </c>
+      <c r="D71">
+        <v>2025</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
         <v>30</v>
       </c>
-      <c r="B70">
+      <c r="B72">
         <v>23720.49</v>
       </c>
-      <c r="C70">
-        <v>5</v>
-      </c>
-      <c r="D70">
-        <v>2025</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
+      </c>
+      <c r="E72" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>30338.81</v>
+        <v>30345.31</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>13507.96</v>
+        <v>13698.11</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -525,27 +525,27 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>18112.93</v>
+        <v>11901.05</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8">
         <v>2025</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>27735.81</v>
+        <v>18112.93</v>
       </c>
       <c r="C9">
         <v>7</v>
@@ -559,10 +559,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>16620.34</v>
+        <v>27735.81</v>
       </c>
       <c r="C10">
         <v>7</v>
@@ -576,10 +576,10 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>27892.39</v>
+        <v>16620.34</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>24182.46</v>
+        <v>27892.39</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13">
-        <v>27515.9</v>
+        <v>24182.46</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>15367.22</v>
+        <v>27515.9</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15">
-        <v>21120.89</v>
+        <v>15367.22</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>14249.1</v>
+        <v>21120.89</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>18544.3</v>
+        <v>14249.1</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>48059.45</v>
+        <v>22074.6</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
-        <v>15067.65</v>
+        <v>48059.45</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>12214.2</v>
+        <v>15067.65</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>7505.85</v>
+        <v>12214.2</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>499270.27</v>
+        <v>7505.85</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>9220.860000000001</v>
+        <v>499270.27</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>12454.83</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>5000.2</v>
+        <v>12454.83</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>7210.32</v>
+        <v>5000.2</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>20062.57</v>
+        <v>7210.32</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>25018.04</v>
+        <v>20062.57</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>59573.83</v>
+        <v>25018.04</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>27720.5</v>
+        <v>59573.83</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,27 +916,27 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B31">
-        <v>45067.52</v>
+        <v>27720.5</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31">
         <v>2025</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C32">
         <v>6</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C33">
         <v>6</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B36">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B41">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B44">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B46">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B48">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B51">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,27 +1273,27 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B52">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C52">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D52">
         <v>2025</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B53">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C54">
         <v>5</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B55">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B56">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B59">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B61">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B62">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B63">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B68">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B69">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B70">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B71">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,18 +1613,35 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
+        <v>29</v>
+      </c>
+      <c r="B72">
+        <v>30466.72</v>
+      </c>
+      <c r="C72">
+        <v>5</v>
+      </c>
+      <c r="D72">
+        <v>2025</v>
+      </c>
+      <c r="E72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
         <v>30</v>
       </c>
-      <c r="B72">
+      <c r="B73">
         <v>23720.49</v>
       </c>
-      <c r="C72">
-        <v>5</v>
-      </c>
-      <c r="D72">
-        <v>2025</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+      <c r="E73" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>16137.39</v>
+        <v>17493.89</v>
       </c>
       <c r="C4">
         <v>8</v>
@@ -494,7 +494,7 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>22763.35</v>
+        <v>22969.35</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>11901.05</v>
+        <v>12379.85</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -542,44 +542,44 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>18112.93</v>
+        <v>19678.49</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9">
         <v>2025</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>27735.81</v>
+        <v>13550.05</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>2025</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>16620.34</v>
+        <v>18112.93</v>
       </c>
       <c r="C11">
         <v>7</v>
@@ -593,10 +593,10 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>27892.39</v>
+        <v>27735.81</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>24182.46</v>
+        <v>16620.34</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>27515.9</v>
+        <v>27892.39</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>15367.22</v>
+        <v>24182.46</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16">
-        <v>21120.89</v>
+        <v>27515.9</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17">
-        <v>14249.1</v>
+        <v>15367.22</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18">
-        <v>22074.6</v>
+        <v>21120.89</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19">
-        <v>48059.45</v>
+        <v>14249.1</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20">
-        <v>15067.65</v>
+        <v>18544.3</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>12214.2</v>
+        <v>48059.45</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>7505.85</v>
+        <v>15067.65</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B23">
-        <v>499270.27</v>
+        <v>12214.2</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>9220.860000000001</v>
+        <v>7505.85</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25">
-        <v>12454.83</v>
+        <v>499270.27</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>5000.2</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>7210.32</v>
+        <v>12454.83</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>20062.57</v>
+        <v>5000.2</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>25018.04</v>
+        <v>7210.32</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>59573.83</v>
+        <v>20062.57</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>27720.5</v>
+        <v>25018.04</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,44 +933,44 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>45067.52</v>
+        <v>59573.83</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32">
         <v>2025</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>35136.72</v>
+        <v>27720.5</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>2025</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>11872.2</v>
+        <v>45067.52</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>12749.74</v>
+        <v>35136.72</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B36">
-        <v>12978.82</v>
+        <v>11872.2</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>11059.45</v>
+        <v>12749.74</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>4973.1</v>
+        <v>12978.82</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>19810.51</v>
+        <v>11059.45</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B40">
-        <v>18059.33</v>
+        <v>4973.1</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B41">
-        <v>9230.379999999999</v>
+        <v>19810.51</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B42">
-        <v>24913.77</v>
+        <v>18059.33</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B43">
-        <v>14906.35</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B44">
-        <v>14248.93</v>
+        <v>24913.77</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B45">
-        <v>5940.05</v>
+        <v>14906.35</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B46">
-        <v>119.13</v>
+        <v>14248.93</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B47">
-        <v>46214.09</v>
+        <v>5940.05</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B48">
-        <v>15253.9</v>
+        <v>119.13</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B49">
-        <v>14231.97</v>
+        <v>46214.09</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B50">
-        <v>24113.52</v>
+        <v>15253.9</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51">
-        <v>9530.559999999999</v>
+        <v>14231.97</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B52">
-        <v>114294.26</v>
+        <v>24113.52</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,44 +1290,44 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B53">
-        <v>20463.44</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D53">
         <v>2025</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B54">
-        <v>29720.49</v>
+        <v>114294.26</v>
       </c>
       <c r="C54">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>2025</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B55">
-        <v>19666.55</v>
+        <v>20463.44</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B56">
-        <v>21883.41</v>
+        <v>29720.49</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57">
-        <v>45418.95</v>
+        <v>19666.55</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58">
-        <v>39575.07</v>
+        <v>21883.41</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B59">
-        <v>15499.7</v>
+        <v>45418.95</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>10155.95</v>
+        <v>39575.07</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>34413.69</v>
+        <v>15499.7</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B62">
-        <v>28325.85</v>
+        <v>10155.95</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63">
-        <v>12000.74</v>
+        <v>34413.69</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B64">
-        <v>17756.75</v>
+        <v>28325.85</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B65">
-        <v>23593.88</v>
+        <v>12000.74</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B66">
-        <v>9475.469999999999</v>
+        <v>17756.75</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B67">
-        <v>27766.95</v>
+        <v>23593.88</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B68">
-        <v>11639.15</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B69">
-        <v>28728.43</v>
+        <v>27766.95</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B70">
-        <v>15807.63</v>
+        <v>11639.15</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B71">
-        <v>24406.06</v>
+        <v>28728.43</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B72">
-        <v>30466.72</v>
+        <v>15807.63</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,18 +1630,52 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
+        <v>28</v>
+      </c>
+      <c r="B73">
+        <v>24406.06</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>2025</v>
+      </c>
+      <c r="E73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>29</v>
+      </c>
+      <c r="B74">
+        <v>30466.72</v>
+      </c>
+      <c r="C74">
+        <v>5</v>
+      </c>
+      <c r="D74">
+        <v>2025</v>
+      </c>
+      <c r="E74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
         <v>30</v>
       </c>
-      <c r="B73">
+      <c r="B75">
         <v>23720.49</v>
       </c>
-      <c r="C73">
-        <v>5</v>
-      </c>
-      <c r="D73">
-        <v>2025</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
+      </c>
+      <c r="E75" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>19849.77</v>
+        <v>20255.27</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -511,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>13698.11</v>
+        <v>13698.08</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -562,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>13550.05</v>
+        <v>24144.7</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -576,27 +576,27 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>18112.93</v>
+        <v>14956.89</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>2025</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12">
-        <v>27735.81</v>
+        <v>18112.93</v>
       </c>
       <c r="C12">
         <v>7</v>
@@ -610,10 +610,10 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>16620.34</v>
+        <v>27735.81</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>27892.39</v>
+        <v>16620.34</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>24182.46</v>
+        <v>27892.39</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>27515.9</v>
+        <v>24182.46</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>15367.22</v>
+        <v>27515.9</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>21120.89</v>
+        <v>15367.22</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>14249.1</v>
+        <v>21120.89</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>18544.3</v>
+        <v>14249.1</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>48059.45</v>
+        <v>18544.3</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>15067.65</v>
+        <v>48059.45</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>12214.2</v>
+        <v>15067.65</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B24">
-        <v>7505.85</v>
+        <v>12214.2</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B25">
-        <v>499270.27</v>
+        <v>7505.85</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>9220.860000000001</v>
+        <v>499270.27</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
-        <v>12454.83</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
-        <v>5000.2</v>
+        <v>12454.83</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>7210.32</v>
+        <v>5000.2</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30">
-        <v>20062.57</v>
+        <v>7210.32</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>25018.04</v>
+        <v>20062.57</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>59573.83</v>
+        <v>25018.04</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>27720.5</v>
+        <v>59573.83</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,27 +967,27 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>45067.52</v>
+        <v>27720.5</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
         <v>2025</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B39">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B44">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B47">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B50">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B51">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B52">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B53">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,27 +1324,27 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B55">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>2025</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B56">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B57">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B66">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B67">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B68">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B69">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B71">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B72">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,18 +1664,35 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
+        <v>29</v>
+      </c>
+      <c r="B75">
+        <v>30466.72</v>
+      </c>
+      <c r="C75">
+        <v>5</v>
+      </c>
+      <c r="D75">
+        <v>2025</v>
+      </c>
+      <c r="E75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
         <v>30</v>
       </c>
-      <c r="B75">
+      <c r="B76">
         <v>23720.49</v>
       </c>
-      <c r="C75">
-        <v>5</v>
-      </c>
-      <c r="D75">
-        <v>2025</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>30345.31</v>
+        <v>30349.56</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -562,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>24144.7</v>
+        <v>26019</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -579,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>14956.89</v>
+        <v>14123.9</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -593,27 +593,27 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>18112.93</v>
+        <v>49557.28</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <v>2025</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>27735.81</v>
+        <v>18112.93</v>
       </c>
       <c r="C13">
         <v>7</v>
@@ -627,10 +627,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>16620.34</v>
+        <v>27735.81</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>27892.39</v>
+        <v>16620.34</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>24182.46</v>
+        <v>27892.39</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>27515.9</v>
+        <v>24182.46</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>15367.22</v>
+        <v>27515.9</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>21120.89</v>
+        <v>15367.22</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>14249.1</v>
+        <v>21120.89</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21">
-        <v>18544.3</v>
+        <v>14249.1</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>48059.45</v>
+        <v>18544.3</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>15067.65</v>
+        <v>48059.45</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>12214.2</v>
+        <v>15067.65</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>7505.85</v>
+        <v>12214.2</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>499270.27</v>
+        <v>7505.85</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>9220.860000000001</v>
+        <v>499270.27</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28">
-        <v>12454.83</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29">
-        <v>5000.2</v>
+        <v>12454.83</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>7210.32</v>
+        <v>5000.2</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B31">
-        <v>20062.57</v>
+        <v>7210.32</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>25018.04</v>
+        <v>20062.57</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>59573.83</v>
+        <v>25018.04</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>27720.5</v>
+        <v>59573.83</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,27 +984,27 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>45067.52</v>
+        <v>27720.5</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35">
         <v>2025</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B40">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B43">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B45">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B48">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B49">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B50">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B51">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B55">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,27 +1341,27 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B56">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56">
         <v>2025</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B57">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C57">
         <v>5</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B59">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B60">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B61">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B63">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B64">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B65">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B66">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B67">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B70">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B72">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B73">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B74">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B75">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,18 +1681,35 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
+        <v>29</v>
+      </c>
+      <c r="B76">
+        <v>30466.72</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <v>2025</v>
+      </c>
+      <c r="E76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
         <v>30</v>
       </c>
-      <c r="B76">
+      <c r="B77">
         <v>23720.49</v>
       </c>
-      <c r="C76">
-        <v>5</v>
-      </c>
-      <c r="D76">
-        <v>2025</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>30349.56</v>
+        <v>30358.01</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -528,7 +528,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>12379.85</v>
+        <v>12549.55</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>19678.49</v>
+        <v>115299.64</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -596,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>49557.28</v>
+        <v>50257.92999999999</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -610,27 +610,27 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>18112.93</v>
+        <v>9371.9</v>
       </c>
       <c r="C13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13">
         <v>2025</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>27735.81</v>
+        <v>18112.93</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>16620.34</v>
+        <v>27735.81</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>27892.39</v>
+        <v>16620.34</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>24182.46</v>
+        <v>27892.39</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>27515.9</v>
+        <v>24182.46</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>15367.22</v>
+        <v>27515.9</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>21120.89</v>
+        <v>15367.22</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>14249.1</v>
+        <v>21120.89</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>18544.3</v>
+        <v>14249.1</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23">
-        <v>48059.45</v>
+        <v>18544.3</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>15067.65</v>
+        <v>48059.45</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>12214.2</v>
+        <v>15067.65</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26">
-        <v>7505.85</v>
+        <v>12214.2</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>499270.27</v>
+        <v>7505.85</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>9220.860000000001</v>
+        <v>499270.27</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>12454.83</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>5000.2</v>
+        <v>12454.83</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31">
-        <v>7210.32</v>
+        <v>5000.2</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B32">
-        <v>20062.57</v>
+        <v>7210.32</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33">
-        <v>25018.04</v>
+        <v>20062.57</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B34">
-        <v>59573.83</v>
+        <v>25018.04</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
-        <v>27720.5</v>
+        <v>59573.83</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,27 +1001,27 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B36">
-        <v>45067.52</v>
+        <v>27720.5</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>2025</v>
       </c>
       <c r="E36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -1035,10 +1035,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B39">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B41">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B42">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B45">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B46">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B51">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B52">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B55">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B56">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,27 +1358,27 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B57">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>2025</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B58">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C58">
         <v>5</v>
@@ -1392,10 +1392,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B61">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B64">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B65">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B66">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B67">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B68">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B70">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B71">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B73">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B74">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B76">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,18 +1698,35 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
+        <v>29</v>
+      </c>
+      <c r="B77">
+        <v>30466.72</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77">
+        <v>2025</v>
+      </c>
+      <c r="E77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
         <v>30</v>
       </c>
-      <c r="B77">
+      <c r="B78">
         <v>23720.49</v>
       </c>
-      <c r="C77">
-        <v>5</v>
-      </c>
-      <c r="D77">
-        <v>2025</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -443,7 +443,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>30358.01</v>
+        <v>30365.46</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>115299.64</v>
+        <v>115305.79</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -562,7 +562,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>26019</v>
+        <v>26032</v>
       </c>
       <c r="C10">
         <v>8</v>
@@ -627,27 +627,27 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>18112.93</v>
+        <v>10467.2</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>2025</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15">
-        <v>27735.81</v>
+        <v>18112.93</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -661,10 +661,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B16">
-        <v>16620.34</v>
+        <v>27735.81</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -678,10 +678,10 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B17">
-        <v>27892.39</v>
+        <v>16620.34</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>24182.46</v>
+        <v>27892.39</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>27515.9</v>
+        <v>24182.46</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>15367.22</v>
+        <v>27515.9</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>21120.89</v>
+        <v>15367.22</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>14249.1</v>
+        <v>21120.89</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>18544.3</v>
+        <v>14249.1</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24">
-        <v>48059.45</v>
+        <v>18544.3</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>15067.65</v>
+        <v>48059.45</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>12214.2</v>
+        <v>15067.65</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>7505.85</v>
+        <v>12214.2</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>499270.27</v>
+        <v>7505.85</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>9220.860000000001</v>
+        <v>499270.27</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>12454.83</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>5000.2</v>
+        <v>12454.83</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>7210.32</v>
+        <v>5000.2</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>20062.57</v>
+        <v>7210.32</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34">
-        <v>25018.04</v>
+        <v>20062.57</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35">
-        <v>59573.83</v>
+        <v>25018.04</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36">
-        <v>27720.5</v>
+        <v>59573.83</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,27 +1018,27 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B37">
-        <v>45067.52</v>
+        <v>27720.5</v>
       </c>
       <c r="C37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D37">
         <v>2025</v>
       </c>
       <c r="E37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38">
-        <v>35136.72</v>
+        <v>45067.52</v>
       </c>
       <c r="C38">
         <v>6</v>
@@ -1052,10 +1052,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>11872.2</v>
+        <v>35136.72</v>
       </c>
       <c r="C39">
         <v>6</v>
@@ -1069,10 +1069,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>12749.74</v>
+        <v>11872.2</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>12978.82</v>
+        <v>12749.74</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>11059.45</v>
+        <v>12978.82</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43">
-        <v>4973.1</v>
+        <v>11059.45</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>19810.51</v>
+        <v>4973.1</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B45">
-        <v>18059.33</v>
+        <v>19810.51</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B46">
-        <v>9230.379999999999</v>
+        <v>18059.33</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B47">
-        <v>24913.77</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>14906.35</v>
+        <v>24913.77</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B49">
-        <v>14248.93</v>
+        <v>14906.35</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B50">
-        <v>5940.05</v>
+        <v>14248.93</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51">
-        <v>119.13</v>
+        <v>5940.05</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B52">
-        <v>46214.09</v>
+        <v>119.13</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53">
-        <v>15253.9</v>
+        <v>46214.09</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54">
-        <v>14231.97</v>
+        <v>15253.9</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B55">
-        <v>24113.52</v>
+        <v>14231.97</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B56">
-        <v>9530.559999999999</v>
+        <v>24113.52</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B57">
-        <v>114294.26</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,27 +1375,27 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B58">
-        <v>20463.44</v>
+        <v>114294.26</v>
       </c>
       <c r="C58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D58">
         <v>2025</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B59">
-        <v>29720.49</v>
+        <v>20463.44</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -1409,10 +1409,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B60">
-        <v>19666.55</v>
+        <v>29720.49</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1426,10 +1426,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>21883.41</v>
+        <v>19666.55</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62">
-        <v>45418.95</v>
+        <v>21883.41</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63">
-        <v>39575.07</v>
+        <v>45418.95</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B64">
-        <v>15499.7</v>
+        <v>39575.07</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65">
-        <v>10155.95</v>
+        <v>15499.7</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66">
-        <v>34413.69</v>
+        <v>10155.95</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B67">
-        <v>28325.85</v>
+        <v>34413.69</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B68">
-        <v>12000.74</v>
+        <v>28325.85</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B69">
-        <v>17756.75</v>
+        <v>12000.74</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70">
-        <v>23593.88</v>
+        <v>17756.75</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B71">
-        <v>9475.469999999999</v>
+        <v>23593.88</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B72">
-        <v>27766.95</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73">
-        <v>11639.15</v>
+        <v>27766.95</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B74">
-        <v>28728.43</v>
+        <v>11639.15</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75">
-        <v>15807.63</v>
+        <v>28728.43</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76">
-        <v>24406.06</v>
+        <v>15807.63</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B77">
-        <v>30466.72</v>
+        <v>24406.06</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,18 +1715,35 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
+        <v>29</v>
+      </c>
+      <c r="B78">
+        <v>30466.72</v>
+      </c>
+      <c r="C78">
+        <v>5</v>
+      </c>
+      <c r="D78">
+        <v>2025</v>
+      </c>
+      <c r="E78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
         <v>30</v>
       </c>
-      <c r="B78">
+      <c r="B79">
         <v>23720.49</v>
       </c>
-      <c r="C78">
-        <v>5</v>
-      </c>
-      <c r="D78">
-        <v>2025</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79" t="s">
         <v>8</v>
       </c>
     </row>

--- a/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
+++ b/dados/ADD/Dados_ADD_PF/faturamento_diario.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="9">
   <si>
     <t>Dia</t>
   </si>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -545,7 +545,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>115305.79</v>
+        <v>117963.69</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -579,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>14123.9</v>
+        <v>14233.4</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -613,7 +613,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>9371.9</v>
+        <v>11107.75</v>
       </c>
       <c r="C13">
         <v>8</v>
@@ -630,7 +630,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>10467.2</v>
+        <v>11839.02</v>
       </c>
       <c r="C14">
         <v>8</v>
@@ -644,44 +644,44 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>18112.93</v>
+        <v>22359.16</v>
       </c>
       <c r="C15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>2025</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>27735.81</v>
+        <v>18859.31</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <v>2025</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>16620.34</v>
+        <v>18112.93</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>27892.39</v>
+        <v>27735.81</v>
       </c>
       <c r="C18">
         <v>7</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B19">
-        <v>24182.46</v>
+        <v>16620.34</v>
       </c>
       <c r="C19">
         <v>7</v>
@@ -729,10 +729,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B20">
-        <v>27515.9</v>
+        <v>27892.39</v>
       </c>
       <c r="C20">
         <v>7</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>15367.22</v>
+        <v>24182.46</v>
       </c>
       <c r="C21">
         <v>7</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22">
-        <v>21120.89</v>
+        <v>27515.9</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -780,10 +780,10 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B23">
-        <v>14249.1</v>
+        <v>15367.22</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B24">
-        <v>18544.3</v>
+        <v>21120.89</v>
       </c>
       <c r="C24">
         <v>7</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>48059.45</v>
+        <v>14249.1</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -831,10 +831,10 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>15067.65</v>
+        <v>18544.3</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>12214.2</v>
+        <v>48059.45</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -865,10 +865,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28">
-        <v>7505.85</v>
+        <v>15067.65</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -882,10 +882,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>499270.27</v>
+        <v>12214.2</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -899,10 +899,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>9220.860000000001</v>
+        <v>7505.85</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31">
-        <v>12454.83</v>
+        <v>499270.27</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -933,10 +933,10 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32">
-        <v>5000.2</v>
+        <v>9220.860000000001</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -950,10 +950,10 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B33">
-        <v>7210.32</v>
+        <v>12454.83</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -967,10 +967,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B34">
-        <v>20062.57</v>
+        <v>5000.2</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B35">
-        <v>25018.04</v>
+        <v>7210.32</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>59573.83</v>
+        <v>20062.57</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -1018,10 +1018,10 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>27720.5</v>
+        <v>25018.04</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -1035,44 +1035,44 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>45067.52</v>
+        <v>59573.83</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38">
         <v>2025</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>35136.72</v>
+        <v>27720.5</v>
       </c>
       <c r="C39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39">
         <v>2025</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>11872.2</v>
+        <v>45067.52</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -1086,10 +1086,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>12749.74</v>
+        <v>35136.72</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -1103,10 +1103,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>12978.82</v>
+        <v>11872.2</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -1120,10 +1120,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>11059.45</v>
+        <v>12749.74</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -1137,10 +1137,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>4973.1</v>
+        <v>12978.82</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>19810.51</v>
+        <v>11059.45</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>18059.33</v>
+        <v>4973.1</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -1188,10 +1188,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>9230.379999999999</v>
+        <v>19810.51</v>
       </c>
       <c r="C47">
         <v>6</v>
@@ -1205,10 +1205,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>24913.77</v>
+        <v>18059.33</v>
       </c>
       <c r="C48">
         <v>6</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>14906.35</v>
+        <v>9230.379999999999</v>
       </c>
       <c r="C49">
         <v>6</v>
@@ -1239,10 +1239,10 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B50">
-        <v>14248.93</v>
+        <v>24913.77</v>
       </c>
       <c r="C50">
         <v>6</v>
@@ -1256,10 +1256,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B51">
-        <v>5940.05</v>
+        <v>14906.35</v>
       </c>
       <c r="C51">
         <v>6</v>
@@ -1273,10 +1273,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B52">
-        <v>119.13</v>
+        <v>14248.93</v>
       </c>
       <c r="C52">
         <v>6</v>
@@ -1290,10 +1290,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B53">
-        <v>46214.09</v>
+        <v>5940.05</v>
       </c>
       <c r="C53">
         <v>6</v>
@@ -1307,10 +1307,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B54">
-        <v>15253.9</v>
+        <v>119.13</v>
       </c>
       <c r="C54">
         <v>6</v>
@@ -1324,10 +1324,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55">
-        <v>14231.97</v>
+        <v>46214.09</v>
       </c>
       <c r="C55">
         <v>6</v>
@@ -1341,10 +1341,10 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B56">
-        <v>24113.52</v>
+        <v>15253.9</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57">
-        <v>9530.559999999999</v>
+        <v>14231.97</v>
       </c>
       <c r="C57">
         <v>6</v>
@@ -1375,10 +1375,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B58">
-        <v>114294.26</v>
+        <v>24113.52</v>
       </c>
       <c r="C58">
         <v>6</v>
@@ -1392,44 +1392,44 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B59">
-        <v>20463.44</v>
+        <v>9530.559999999999</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D59">
         <v>2025</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B60">
-        <v>29720.49</v>
+        <v>114294.26</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60">
         <v>2025</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B61">
-        <v>19666.55</v>
+        <v>20463.44</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -1443,10 +1443,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B62">
-        <v>21883.41</v>
+        <v>29720.49</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <v>45418.95</v>
+        <v>19666.55</v>
       </c>
       <c r="C63">
         <v>5</v>
@@ -1477,10 +1477,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B64">
-        <v>39575.07</v>
+        <v>21883.41</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -1494,10 +1494,10 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B65">
-        <v>15499.7</v>
+        <v>45418.95</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B66">
-        <v>10155.95</v>
+        <v>39575.07</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -1528,10 +1528,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B67">
-        <v>34413.69</v>
+        <v>15499.7</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -1545,10 +1545,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B68">
-        <v>28325.85</v>
+        <v>10155.95</v>
       </c>
       <c r="C68">
         <v>5</v>
@@ -1562,10 +1562,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B69">
-        <v>12000.74</v>
+        <v>34413.69</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -1579,10 +1579,10 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B70">
-        <v>17756.75</v>
+        <v>28325.85</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -1596,10 +1596,10 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B71">
-        <v>23593.88</v>
+        <v>12000.74</v>
       </c>
       <c r="C71">
         <v>5</v>
@@ -1613,10 +1613,10 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B72">
-        <v>9475.469999999999</v>
+        <v>17756.75</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -1630,10 +1630,10 @@
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B73">
-        <v>27766.95</v>
+        <v>23593.88</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -1647,10 +1647,10 @@
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B74">
-        <v>11639.15</v>
+        <v>9475.469999999999</v>
       </c>
       <c r="C74">
         <v>5</v>
@@ -1664,10 +1664,10 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B75">
-        <v>28728.43</v>
+        <v>27766.95</v>
       </c>
       <c r="C75">
         <v>5</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B76">
-        <v>15807.63</v>
+        <v>11639.15</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77">
-        <v>24406.06</v>
+        <v>28728.43</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -1715,10 +1715,10 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B78">
-        <v>30466.72</v>
+        <v>15807.63</v>
       </c>
       <c r="C78">
         <v>5</v>
@@ -1732,18 +1732,52 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
+        <v>28</v>
+      </c>
+      <c r="B79">
+        <v>24406.06</v>
+      </c>
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>2025</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>29</v>
+      </c>
+      <c r="B80">
+        <v>30466.72</v>
+      </c>
+      <c r="C80">
+        <v>5</v>
+      </c>
+      <c r="D80">
+        <v>2025</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
         <v>30</v>
       </c>
-      <c r="B79">
+      <c r="B81">
         <v>23720.49</v>
       </c>
-      <c r="C79">
-        <v>5</v>
-      </c>
-      <c r="D79">
-        <v>2025</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C81">
+        <v>5</v>
+      </c>
+      <c r="D81">
+        <v>2025</v>
+      </c>
+      <c r="E81" t="s">
         <v>8</v>
       </c>
     </row>
